--- a/ЕГЭ Сергей Шаповал.xlsx
+++ b/ЕГЭ Сергей Шаповал.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43E128E-0215-4B82-B32E-AFBAC4D52BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0726B3-3AEE-4CAD-A6B5-0DF7D9C2391F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Статистика" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,12 +61,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="I26" authorId="0" shapeId="0" xr:uid="{CB1675F6-80B6-416D-906A-6DC40352BB41}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Проблемы с использованием itertools</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Построение таблиц истинности логических выражений</t>
   </si>
@@ -149,6 +174,12 @@
   </si>
   <si>
     <t>ДЗ</t>
+  </si>
+  <si>
+    <t>СГ1</t>
+  </si>
+  <si>
+    <t>СГ1(II)</t>
   </si>
 </sst>
 </file>
@@ -382,7 +413,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFill="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -453,6 +484,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="3" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10098,6 +10130,3804 @@
             <a:xfrm>
               <a:off x="15074986" y="54374721"/>
               <a:ext cx="2113522" cy="665652"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>346222</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>16517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>281253</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>174388</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDEF315-5767-4A05-977F-CC79133BBAA3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3397320" y="400615"/>
+            <a:ext cx="1152295" cy="349920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDEF315-5767-4A05-977F-CC79133BBAA3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3388680" y="391615"/>
+              <a:ext cx="1169934" cy="367560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>440143</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>130164</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171933</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="15" name="Ink 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2727C1D5-B92B-43B8-BA60-81FB722DE58F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4711680" y="353815"/>
+            <a:ext cx="300240" cy="394265"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="Ink 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2727C1D5-B92B-43B8-BA60-81FB722DE58F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4703030" y="345166"/>
+              <a:ext cx="317901" cy="411924"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>249723</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>26685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>77964</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>96525</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="16" name="Ink 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA02ED3-B596-48B3-9DDB-C9CB1F46D61F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3911040" y="794880"/>
+            <a:ext cx="1048680" cy="69840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="Ink 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA02ED3-B596-48B3-9DDB-C9CB1F46D61F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3902040" y="786240"/>
+              <a:ext cx="1066320" cy="87480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>168820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52640</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>173037</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="26" name="Ink 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C252E31-9CF3-4F2E-9047-EB5B53969869}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6383520" y="937015"/>
+            <a:ext cx="378360" cy="196265"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="26" name="Ink 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C252E31-9CF3-4F2E-9047-EB5B53969869}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6374888" y="928158"/>
+              <a:ext cx="395983" cy="213624"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>224039</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>80445</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>787</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="27" name="Ink 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB9812E-92CF-473E-89C3-CE128EB7F2C6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5716015" y="974880"/>
+            <a:ext cx="466625" cy="178200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="27" name="Ink 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB9812E-92CF-473E-89C3-CE128EB7F2C6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5707374" y="966223"/>
+              <a:ext cx="484267" cy="195876"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>210385</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>186165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>568390</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190972</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="31" name="Ink 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{450FCA62-CDB2-48B2-9519-20E9E0AC745C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6922800" y="954360"/>
+            <a:ext cx="351655" cy="196855"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="31" name="Ink 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{450FCA62-CDB2-48B2-9519-20E9E0AC745C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6914162" y="945363"/>
+              <a:ext cx="369292" cy="214489"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>306145</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>174982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>549080</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>149123</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="34" name="Ink 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0F39013-A9A4-4F3D-850E-FBAC9FA38C07}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7018560" y="559080"/>
+            <a:ext cx="242935" cy="163015"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="34" name="Ink 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0F39013-A9A4-4F3D-850E-FBAC9FA38C07}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7009562" y="550084"/>
+              <a:ext cx="260570" cy="180648"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>326986</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>126677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>548976</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>169578</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="38" name="Ink 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9265AF9-A41F-460C-9D21-CF36DF51DABE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8259840" y="510775"/>
+            <a:ext cx="218815" cy="225425"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="38" name="Ink 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9265AF9-A41F-460C-9D21-CF36DF51DABE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8250707" y="502133"/>
+              <a:ext cx="236715" cy="243070"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>337001</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>164860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>493406</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>18428</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="41" name="Ink 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB18314F-75F6-4448-BCAF-DBCF7E63D721}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8269855" y="933055"/>
+            <a:ext cx="146880" cy="237665"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="41" name="Ink 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB18314F-75F6-4448-BCAF-DBCF7E63D721}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8260855" y="924053"/>
+              <a:ext cx="164520" cy="255310"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>582580</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>58400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>90979</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="51" name="Ink 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7CC1950-ACF9-473F-B72F-8D10E0115C0A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6684775" y="1382400"/>
+            <a:ext cx="86040" cy="52920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="51" name="Ink 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7CC1950-ACF9-473F-B72F-8D10E0115C0A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6675775" y="1373400"/>
+              <a:ext cx="103680" cy="70560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>261820</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>149042</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>378395</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>148088</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="52" name="Ink 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73103FC6-F14F-4CBD-BB55-A9870277939B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6364015" y="1301335"/>
+            <a:ext cx="113400" cy="187920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="52" name="Ink 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73103FC6-F14F-4CBD-BB55-A9870277939B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6354750" y="1292177"/>
+              <a:ext cx="131559" cy="205869"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>241679</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95860</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149953</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="53" name="Ink 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF84D6E-B939-40F9-9629-4FC26A9AA3D3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5733655" y="1313935"/>
+            <a:ext cx="464400" cy="180360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="53" name="Ink 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF84D6E-B939-40F9-9629-4FC26A9AA3D3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5724662" y="1305295"/>
+              <a:ext cx="482026" cy="198000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>299240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>440000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155058</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="56" name="Ink 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BFBC4BE-AD51-4AB0-BB79-51356CD82DC5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7011655" y="1299535"/>
+            <a:ext cx="140760" cy="199865"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="56" name="Ink 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BFBC4BE-AD51-4AB0-BB79-51356CD82DC5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7003015" y="1290892"/>
+              <a:ext cx="158400" cy="217511"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>343546</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>137947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>511111</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15864</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="59" name="Ink 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4E4DC6-5044-4D9E-A5D6-425F6EB1D24D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8276400" y="1290240"/>
+            <a:ext cx="161215" cy="262015"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="59" name="Ink 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4E4DC6-5044-4D9E-A5D6-425F6EB1D24D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8267586" y="1281130"/>
+              <a:ext cx="179209" cy="279871"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285304</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>29081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>404104</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>188431</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="60" name="Ink 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FE097E-3434-4AB2-8818-98A48E5BF877}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5777280" y="1757520"/>
+            <a:ext cx="118800" cy="153000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="60" name="Ink 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FE097E-3434-4AB2-8818-98A48E5BF877}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5768280" y="1748520"/>
+              <a:ext cx="136440" cy="170640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15560</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128671</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="67" name="Ink 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26EF9731-0AD4-4A03-9AC3-E23832F72B3F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6727975" y="1781575"/>
+            <a:ext cx="136800" cy="72360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="67" name="Ink 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26EF9731-0AD4-4A03-9AC3-E23832F72B3F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6719312" y="1772892"/>
+              <a:ext cx="154487" cy="90088"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>278020</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>167425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>396035</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>186502</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="68" name="Ink 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2872D205-BEF3-474B-BD76-98FD729241D8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6380215" y="1703815"/>
+            <a:ext cx="111665" cy="201600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="68" name="Ink 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2872D205-BEF3-474B-BD76-98FD729241D8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6371570" y="1694815"/>
+              <a:ext cx="129315" cy="219240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>75045</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>35561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>99165</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>149486</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="69" name="Ink 68">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35AD56B-B1F4-4809-AE85-67CE854EE225}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6177240" y="1764000"/>
+            <a:ext cx="24120" cy="107575"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="69" name="Ink 68">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35AD56B-B1F4-4809-AE85-67CE854EE225}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6169623" y="1755365"/>
+              <a:ext cx="39671" cy="125204"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352585</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>511575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>186567</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="70" name="Ink 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0FE0D7-9BED-4670-9A14-F241562548C6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7065000" y="1713600"/>
+            <a:ext cx="152640" cy="191880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="70" name="Ink 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0FE0D7-9BED-4670-9A14-F241562548C6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7056360" y="1704600"/>
+              <a:ext cx="170280" cy="209520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>357586</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>135810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476026</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>156097</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="73" name="Ink 72">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA866418-9C84-4562-A6CE-ABA74F0729D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8290440" y="1672200"/>
+            <a:ext cx="118440" cy="212335"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="73" name="Ink 72">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA866418-9C84-4562-A6CE-ABA74F0729D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8281800" y="1663218"/>
+              <a:ext cx="136080" cy="229940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>253984</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>416869</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>150358</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="74" name="Ink 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2009F12-2B20-4232-854E-226A895C5BF8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5745960" y="2100600"/>
+            <a:ext cx="153360" cy="159120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="74" name="Ink 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2009F12-2B20-4232-854E-226A895C5BF8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5736960" y="2091600"/>
+              <a:ext cx="171000" cy="176760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>280605</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>172552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>376955</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>169668</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="77" name="Ink 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3614BE31-9038-4FA8-80BB-A3ED5B843ACD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6382800" y="2093040"/>
+            <a:ext cx="90000" cy="179640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="77" name="Ink 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3614BE31-9038-4FA8-80BB-A3ED5B843ACD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6373800" y="2084400"/>
+              <a:ext cx="107640" cy="197280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60645</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>42783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>90885</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>149868</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="78" name="Ink 77">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368A4E5E-AF38-4B84-9424-CF286A6589D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6162840" y="2155320"/>
+            <a:ext cx="30240" cy="100735"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="78" name="Ink 77">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368A4E5E-AF38-4B84-9424-CF286A6589D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6154200" y="2146326"/>
+              <a:ext cx="47880" cy="118364"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>87560</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>210745</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>113703</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="81" name="Ink 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1686C8BB-D316-48F6-86CD-84504F76ABCA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6799975" y="2164975"/>
+            <a:ext cx="123185" cy="61265"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="81" name="Ink 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1686C8BB-D316-48F6-86CD-84504F76ABCA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6791305" y="2156275"/>
+              <a:ext cx="140886" cy="79028"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>403705</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571465</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>149868</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="82" name="Ink 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91208DE-1EFE-4B3F-8270-5B54D269F1C7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7116120" y="2084400"/>
+            <a:ext cx="167760" cy="168480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="82" name="Ink 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91208DE-1EFE-4B3F-8270-5B54D269F1C7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7107480" y="2075400"/>
+              <a:ext cx="185400" cy="186120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>318706</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495826</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>188093</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="83" name="Ink 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED788FD-D6D4-42F2-AB92-942C8AFE0D5A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8251560" y="2089440"/>
+            <a:ext cx="177120" cy="204840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="83" name="Ink 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED788FD-D6D4-42F2-AB92-942C8AFE0D5A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8242920" y="2080440"/>
+              <a:ext cx="194760" cy="222480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>364105</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>607695</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>35285</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="84" name="Ink 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4785286-6E99-4CE2-87D4-A51FAD9D412C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7076520" y="2315880"/>
+            <a:ext cx="237240" cy="17640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="84" name="Ink 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4785286-6E99-4CE2-87D4-A51FAD9D412C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7067520" y="2306880"/>
+              <a:ext cx="254880" cy="35280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>414807</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>136485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>567382</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>188879</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="85" name="Ink 84">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFAD6AC6-95B2-4287-ADC5-DB6404C583CA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8957880" y="904680"/>
+            <a:ext cx="149400" cy="1393560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="85" name="Ink 84">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFAD6AC6-95B2-4287-ADC5-DB6404C583CA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8949240" y="895680"/>
+              <a:ext cx="167040" cy="1411200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>244708</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>96275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Picture 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{014F6739-1185-4C3D-9321-CB946423547C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="1"/>
+          <a:ext cx="6957122" cy="1632664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>208780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>90214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>302380</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>108934</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="93" name="Ink 92">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31849476-CFC2-4F66-9F9D-CE65E8C82F44}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="819000" y="666360"/>
+            <a:ext cx="93600" cy="18720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="93" name="Ink 92">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31849476-CFC2-4F66-9F9D-CE65E8C82F44}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="810360" y="657720"/>
+              <a:ext cx="111240" cy="36360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>386980</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>77254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>454660</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>145654</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="94" name="Ink 93">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53ED9190-90C4-43E7-B227-64A7D9471108}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="997200" y="653400"/>
+            <a:ext cx="67680" cy="68400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="94" name="Ink 93">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53ED9190-90C4-43E7-B227-64A7D9471108}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="988200" y="644400"/>
+              <a:ext cx="85320" cy="86040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>272500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>336940</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>36405</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="95" name="Ink 94">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F260D7A-A11D-4FBC-8822-7181D0C32F1F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="882720" y="799560"/>
+            <a:ext cx="64440" cy="5040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="95" name="Ink 94">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F260D7A-A11D-4FBC-8822-7181D0C32F1F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="873720" y="790920"/>
+              <a:ext cx="82080" cy="22680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>392020</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419740</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>62685</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId64">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="96" name="Ink 95">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C5EA4C-5789-44E6-AB57-E1C368E0396B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1002240" y="769680"/>
+            <a:ext cx="27720" cy="61200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="96" name="Ink 95">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C5EA4C-5789-44E6-AB57-E1C368E0396B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="993240" y="760680"/>
+              <a:ext cx="45360" cy="78840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>251260</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>148365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>458260</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166851</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId66">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="106" name="Ink 105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E12BF4-8D0C-468F-8B8C-ECB1B0676CE7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="861480" y="916560"/>
+            <a:ext cx="207000" cy="210535"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="106" name="Ink 105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E12BF4-8D0C-468F-8B8C-ECB1B0676CE7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="852825" y="907578"/>
+              <a:ext cx="224671" cy="228139"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>360427</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>187191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>205543</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>191342</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId68">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="117" name="Ink 116">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A6E9888-7FB1-442A-A9C4-D48E8CEF0922}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9513720" y="4220215"/>
+            <a:ext cx="455335" cy="196200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="117" name="Ink 116">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A6E9888-7FB1-442A-A9C4-D48E8CEF0922}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9504728" y="4211215"/>
+              <a:ext cx="472959" cy="213840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>377237</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>112958</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>186853</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId70">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="127" name="Ink 126">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE0CF977-7ADF-4DD3-A28F-129AD73CDEB8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8920310" y="3782520"/>
+            <a:ext cx="956160" cy="821455"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="127" name="Ink 126">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE0CF977-7ADF-4DD3-A28F-129AD73CDEB8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8911310" y="3773489"/>
+              <a:ext cx="973800" cy="839156"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>184543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419452</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>50347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="130" name="Picture 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC8AE57-677E-4115-9B67-97E4CEA24766}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4415457"/>
+          <a:ext cx="8344252" cy="1981261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428215</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>145438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>56935</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>18643</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="133" name="Ink 132">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A67D58F-0B03-4B20-B97C-B56ABAF25B5E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1037815" y="5145609"/>
+            <a:ext cx="238320" cy="65520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="133" name="Ink 132">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A67D58F-0B03-4B20-B97C-B56ABAF25B5E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1029175" y="5136969"/>
+              <a:ext cx="255960" cy="83160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>491215</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>97548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>141175</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>110434</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="138" name="Ink 137">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C06CC8-D44F-4927-BB6C-569D688A6E2A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1100815" y="5290034"/>
+            <a:ext cx="259560" cy="205200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="138" name="Ink 137">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C06CC8-D44F-4927-BB6C-569D688A6E2A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1091815" y="5281018"/>
+              <a:ext cx="277200" cy="222871"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>90720</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>110857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>325255</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>134615</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="141" name="Ink 140">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E3F9B33-C89D-4301-926C-C26F24F19657}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1919520" y="6264914"/>
+            <a:ext cx="844135" cy="793015"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="141" name="Ink 140">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E3F9B33-C89D-4301-926C-C26F24F19657}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1910877" y="6256271"/>
+              <a:ext cx="861781" cy="810662"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>270120</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>150169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380335</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>52820</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="156" name="Ink 155">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF7AF6F-A30F-486E-9117-7AFBA2F0AE36}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3318120" y="6881169"/>
+            <a:ext cx="1329415" cy="287280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="156" name="Ink 155">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF7AF6F-A30F-486E-9117-7AFBA2F0AE36}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3309480" y="6872529"/>
+              <a:ext cx="1347054" cy="304920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>32750</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>116034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>260575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>20420</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="159" name="Ink 158">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB44A549-9EDE-4DB2-9D0B-06243DA777A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4909550" y="6847034"/>
+            <a:ext cx="837425" cy="289015"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="159" name="Ink 158">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB44A549-9EDE-4DB2-9D0B-06243DA777A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4900909" y="6838036"/>
+              <a:ext cx="855066" cy="306651"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19560</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>187885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>186240</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>44457</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId83">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="160" name="Ink 159">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639DC3B0-3815-456A-A324-1DBEBDE59C1E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6725160" y="7303514"/>
+            <a:ext cx="166680" cy="241200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="160" name="Ink 159">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639DC3B0-3815-456A-A324-1DBEBDE59C1E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6716160" y="7294874"/>
+              <a:ext cx="184320" cy="258840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>78731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>449095</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>143466</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="173" name="Ink 172">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E4748F-36D8-4353-BA2F-DB42921460BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8182375" y="7386674"/>
+            <a:ext cx="191520" cy="64735"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="173" name="Ink 172">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E4748F-36D8-4353-BA2F-DB42921460BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8173569" y="7377210"/>
+              <a:ext cx="209498" cy="83285"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>322680</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>166515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>307615</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>162897</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId87">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="175" name="Ink 174">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0E2D19-B2B0-4850-838E-AB3344CAA57D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7028280" y="7282144"/>
+            <a:ext cx="1204135" cy="381010"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="175" name="Ink 174">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0E2D19-B2B0-4850-838E-AB3344CAA57D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7019280" y="7273501"/>
+              <a:ext cx="1221774" cy="398656"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>42600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>144040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>49560</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>67285</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId89">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="184" name="Ink 183">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{493D21B1-BAE0-4A36-AA87-7A1F4F924831}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6748200" y="7067354"/>
+            <a:ext cx="1226160" cy="115560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="184" name="Ink 183">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{493D21B1-BAE0-4A36-AA87-7A1F4F924831}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6739537" y="7058714"/>
+              <a:ext cx="1243847" cy="133200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>33895</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>183575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95760</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19192</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId91">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="251" name="Ink 250">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C090C9D-045C-4DAE-9178-0BC1D24677E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8568295" y="7106889"/>
+            <a:ext cx="671465" cy="412560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="251" name="Ink 250">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C090C9D-045C-4DAE-9178-0BC1D24677E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8559294" y="7098249"/>
+              <a:ext cx="689107" cy="430200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>136200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>146994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>144000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133240</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId93">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="252" name="Ink 251">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B14BBA-4B0F-4A98-84B9-C51D50B0DB93}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6841800" y="6877994"/>
+            <a:ext cx="2446200" cy="178560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="252" name="Ink 251">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B14BBA-4B0F-4A98-84B9-C51D50B0DB93}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6833160" y="6869354"/>
+              <a:ext cx="2463840" cy="196200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>55920</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>89097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>140520</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>116743</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId95">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="253" name="Ink 252">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6682AF66-4A12-4AD3-A00C-59E305D7BD24}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6761520" y="7589354"/>
+            <a:ext cx="1913400" cy="219960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="253" name="Ink 252">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6682AF66-4A12-4AD3-A00C-59E305D7BD24}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6752880" y="7580354"/>
+              <a:ext cx="1931040" cy="237600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>185280</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>125817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>51480</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>56548</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId97">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="256" name="Ink 255">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70463F60-19BF-45BA-87E0-3025A6A0334E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8110080" y="7626074"/>
+            <a:ext cx="1085400" cy="315360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="256" name="Ink 255">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70463F60-19BF-45BA-87E0-3025A6A0334E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8101440" y="7617434"/>
+              <a:ext cx="1103040" cy="333000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>288360</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>90971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>420480</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>20697</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId99">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="259" name="Ink 258">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF26E10-A924-4DAD-98BA-D54CE71F6405}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9432360" y="7398914"/>
+            <a:ext cx="132120" cy="122040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="259" name="Ink 258">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF26E10-A924-4DAD-98BA-D54CE71F6405}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9423720" y="7390274"/>
+              <a:ext cx="149760" cy="139680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>51655</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>149440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>554160</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>48352</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId101">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="269" name="Ink 268">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3BD9397-58F7-4D4B-B259-7C6FFFFC643A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9805255" y="7072754"/>
+            <a:ext cx="1112105" cy="475855"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="269" name="Ink 268">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3BD9397-58F7-4D4B-B259-7C6FFFFC643A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9796254" y="7063755"/>
+              <a:ext cx="1129746" cy="493493"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>77040</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>20845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>346430</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>50152</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId103">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="278" name="Ink 277">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E15AE31-FD11-48A5-A575-8960CD942577}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11049840" y="7136474"/>
+            <a:ext cx="878990" cy="413935"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="278" name="Ink 277">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E15AE31-FD11-48A5-A575-8960CD942577}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11040838" y="7127835"/>
+              <a:ext cx="896635" cy="431572"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>65695</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>71753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>211135</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>154913</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId105">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="292" name="Ink 291">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675CF348-BCA1-4A2E-A8A3-4E0D5935987E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11648095" y="7764324"/>
+            <a:ext cx="145440" cy="83160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="292" name="Ink 291">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675CF348-BCA1-4A2E-A8A3-4E0D5935987E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11639455" y="7755324"/>
+              <a:ext cx="163080" cy="100800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>79080</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>184435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>226320</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>146560</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId107">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="303" name="Ink 302">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFC3961-6530-4130-9BB2-B6C9D9080E96}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11661480" y="7107749"/>
+            <a:ext cx="147240" cy="154440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="303" name="Ink 302">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFC3961-6530-4130-9BB2-B6C9D9080E96}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11652480" y="7099109"/>
+              <a:ext cx="164880" cy="172080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>574440</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>172120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>572040</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>33372</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId109">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="305" name="Ink 304">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76272E86-51CA-4036-991D-D5D7638915FB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12156840" y="7287749"/>
+            <a:ext cx="1216800" cy="245880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="305" name="Ink 304">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76272E86-51CA-4036-991D-D5D7638915FB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12147840" y="7279109"/>
+              <a:ext cx="1234440" cy="263520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>469255</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>148147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>527095</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>77863</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId111">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="309" name="Ink 308">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A4E3EA-7D36-4BC9-8C05-0372B6107629}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12051655" y="7648404"/>
+            <a:ext cx="667440" cy="314345"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="309" name="Ink 308">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A4E3EA-7D36-4BC9-8C05-0372B6107629}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12042660" y="7639402"/>
+              <a:ext cx="685070" cy="331989"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>606840</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>3915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>322855</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>131215</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId113">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="322" name="Ink 321">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306BF32D-4787-4135-92C0-01D62AE3568F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8531640" y="8273429"/>
+            <a:ext cx="935215" cy="319615"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="322" name="Ink 321">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306BF32D-4787-4135-92C0-01D62AE3568F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8522997" y="8264781"/>
+              <a:ext cx="952861" cy="337271"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>359695</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>4275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>305520</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>136680</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId115">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="323" name="Ink 322">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{332722C5-1412-4A0D-B4D6-9F945999D96C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7065295" y="8273789"/>
+            <a:ext cx="1165025" cy="324720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="323" name="Ink 322">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{332722C5-1412-4A0D-B4D6-9F945999D96C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId116"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7056297" y="8265149"/>
+              <a:ext cx="1182661" cy="342360"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10497,7 +14327,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">156 134 340 0 0,'-26'9'1193'0'0,"14"-4"-773"0"0,10-5-405 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-2 3 1 0 0,2-3-104 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="416.7">150 185 540 0 0,'10'-30'4428'0'0,"-10"27"-4225"0"0,0 0 138 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-2-3 1 0 0,-8-16 4453 0 0,5 50-1759 0 0,-13 171 1407 0 0,14 105-2792 0 0,5-242-1488 0 0,8 34-98 0 0,-1-2-24 0 0,-4-77-105 0 0,0 8-129 0 0,-3-25 17 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,-1 1 1 0 0,2-2 31 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-4-13-4072 0 0,2-13-1417 0 0,2 25 5413 0 0,0-14-2248 0 0,0-3 512 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1012.34">130 542 152 0 0,'0'-1'400'0'0,"0"-1"-1"0"0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,-2-2 1 0 0,-4-8 4854 0 0,32 0-3352 0 0,-10 4-1623 0 0,0 1 0 0 0,0 0 0 0 0,1 2-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,0 0 0 0 0,29 6 0 0 0,-20-2-133 0 0,-1 2 0 0 0,0 0 0 0 0,-1 2 1 0 0,1 0-1 0 0,-2 2 0 0 0,39 23 0 0 0,-49-26-22 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,1 1 1 0 0,-2 0-1 0 0,1 0 0 0 0,-2 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,5 26 1 0 0,-8-23 221 0 0,-1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,-1 0 0 0 0,-3 28 0 0 0,2-36-229 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,-5 5 0 0 0,-4 1-18 0 0,-1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-2 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0-2 1 0 0,0 0-1 0 0,-31 6 0 0 0,9-5-30 0 0,0-2 0 0 0,0-2 1 0 0,-1-2-1 0 0,-46-2 0 0 0,-72-15-731 0 0,160 15 582 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,12-17-3991 0 0,23-11-2701 0 0,-36 28 6689 0 0,49-34-6698 0 0,-24 14 4110 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1012.33">130 542 152 0 0,'0'-1'400'0'0,"0"-1"-1"0"0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,-2-2 1 0 0,-4-8 4854 0 0,32 0-3352 0 0,-10 4-1623 0 0,0 1 0 0 0,0 0 0 0 0,1 2-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,0 0 0 0 0,29 6 0 0 0,-20-2-133 0 0,-1 2 0 0 0,0 0 0 0 0,-1 2 1 0 0,1 0-1 0 0,-2 2 0 0 0,39 23 0 0 0,-49-26-22 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,1 1 1 0 0,-2 0-1 0 0,1 0 0 0 0,-2 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,5 26 1 0 0,-8-23 221 0 0,-1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,-1 0 0 0 0,-3 28 0 0 0,2-36-229 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,-5 5 0 0 0,-4 1-18 0 0,-1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-2 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0-2 1 0 0,0 0-1 0 0,-31 6 0 0 0,9-5-30 0 0,0-2 0 0 0,0-2 1 0 0,-1-2-1 0 0,-46-2 0 0 0,-72-15-731 0 0,160 15 582 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,12-17-3991 0 0,23-11-2701 0 0,-36 28 6689 0 0,49-34-6698 0 0,-24 14 4110 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1684.14">70 224 852 0 0,'0'0'161'0'0,"0"-1"1"0"0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,13-14 11709 0 0,-22 11-7767 0 0,0 5-1781 0 0,6 3-5626 0 0,10 9-7598 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2320.01">110 83 96 0 0,'5'-12'24855'0'0,"3"12"-23489"0"0,3 0-1993 0 0,335-24 1369 0 0,-227 12-735 0 0,-98 10-9 0 0,132-17-15 0 0,-131 14 28 0 0,13-2 20 0 0,-28 6-1080 0 0,-18 6-2185 0 0,6-1 1092 0 0,0 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0-1 1 0 0,-7 3-1 0 0,-6 1-1448 0 0</inkml:trace>
 </inkml:ink>
@@ -10698,7 +14528,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">491 150 36 0 0,'-1'0'155'0'0,"-1"0"-1"0"0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 51 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,1-1 1 0 0,-1 0 257 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-5 0 0 0,-5-16 4313 0 0,2 15-2398 0 0,-7-16 3035 0 0,8 8-1973 0 0,7 38-2131 0 0,-3-16-1151 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-2 12 1 0 0,2 15 337 0 0,6 50-242 0 0,4 37-47 0 0,-7-92-206 0 0,-3-14 0 0 0,1 0 0 0 0,8 26 0 0 0,23 94 0 0 0,-23-87 0 0 0,17 51 0 0 0,1-2 0 0 0,-26-85 0 0 0,0-1 0 0 0,0 1 0 0 0,-2 0 0 0 0,1 20 0 0 0,-1-21 0 0 0,-2 4 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-6 14 0 0 0,8-25 0 0 0,3-3 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,2 1 0 0 0,1 0 0 0 0,-4-1-174 0 0,-1-7-311 0 0,0-4-1191 0 0,1 5 424 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-4-3 0 0 0,-15-13-5070 0 0,6 8 3659 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1071.16">171 174 100 0 0,'-2'-1'276'0'0,"1"0"-1"0"0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-2-3 1 0 0,2 2-157 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 0 0 0,-2 0 0 0 0,-12-17 3596 0 0,-27-1 2016 0 0,-25-2 3402 0 0,56 19-7459 0 0,0-2 624 0 0,18 3-633 0 0,22 3-244 0 0,-24-1-1519 0 0,231 1 497 0 0,416-7 1078 0 0,-506 5-2994 0 0,-149 1 179 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-4 2 0 0 0,-14 7-6713 0 0,1-5 3020 0 0,4-2 848 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1071.08">171 174 100 0 0,'-2'-1'276'0'0,"1"0"-1"0"0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-2-3 1 0 0,2 2-157 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 0 0 0,-2 0 0 0 0,-12-17 3596 0 0,-27-1 2016 0 0,-25-2 3402 0 0,56 19-7459 0 0,0-2 624 0 0,18 3-633 0 0,22 3-244 0 0,-24-1-1519 0 0,231 1 497 0 0,416-7 1078 0 0,-506 5-2994 0 0,-149 1 179 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-4 2 0 0 0,-14 7-6713 0 0,1-5 3020 0 0,4-2 848 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -10977,7 +14807,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1986 231 788 0 0,'-8'-195'19356'0'0,"6"211"-17837"0"0,-3 112 2063 0 0,12 41-1590 0 0,42 262 0 0 0,-8-261-1393 0 0,-37-154-546 0 0,12 36 63 0 0,2-2 0 0 0,2 0 1 0 0,3-1-1 0 0,45 74 0 0 0,-53-101-101 0 0,0-1 1 0 0,2-1-1 0 0,0-1 0 0 0,1 0 1 0 0,1-1-1 0 0,1-1 0 0 0,0-1 0 0 0,1-1 1 0 0,1-1-1 0 0,28 14 0 0 0,-4-6-18 0 0,0-2-1 0 0,2-2 0 0 0,0-3 0 0 0,65 13 0 0 0,441 60 136 0 0,-465-81-86 0 0,0 5 0 0 0,-1 3 0 0 0,116 37 1 0 0,-160-37-13 0 0,-1 2 0 0 0,59 31 0 0 0,-82-36-3 0 0,0 0 0 0 0,-1 2 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 1 0 0,27 34-1 0 0,-19-17 43 0 0,-2 1 0 0 0,-2 2 1 0 0,-1 0-1 0 0,28 71 1 0 0,-22-35 10 0 0,26 126 0 0 0,-41-147-80 0 0,20 104-46 0 0,-31-152 38 0 0,25 196-582 0 0,-21-147-759 0 0,-5 97 1 0 0,-2-105-1559 0 0,-3 1 0 0 0,-15 59 1 0 0,15-83 836 0 0,-1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,-2-1 1 0 0,0-1-1 0 0,0 0 1 0 0,-17 20-1 0 0,2-10-756 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1037.86">1677 45 796 0 0,'52'-45'16230'0'0,"-52"46"-16105"0"0,3 23 2139 0 0,-5 3-525 0 0,-1-1 0 0 0,-7 35 0 0 0,-5 32-298 0 0,-15 120 241 0 0,19-148-1288 0 0,-9 45 271 0 0,-5-1 1 0 0,-5-1 0 0 0,-64 156-1 0 0,53-168-338 0 0,-73 157 224 0 0,83-195-332 0 0,-2 0 0 0 0,-68 89 0 0 0,72-112-133 0 0,0 2 39 0 0,-63 58 0 0 0,36-45-83 0 0,-93 61 1 0 0,-48 3-43 0 0,49-31 0 0 0,63-37 0 0 0,56-31 0 0 0,0 0 0 0 0,2 2 0 0 0,0 1 0 0 0,-43 37 0 0 0,58-43 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,1 1 0 0 0,1-1 0 0 0,-14 31 0 0 0,9-11 0 0 0,1 1 0 0 0,2 0 0 0 0,-8 46 0 0 0,-10 112 0 0 0,25-163 0 0 0,-13 144-1333 0 0,7 0 0 0 0,21 280 1 0 0,-1-319-7722 0 0,36 175 1 0 0,-21-196 4266 0 0,0 0 828 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1037.83">1677 45 796 0 0,'52'-45'16230'0'0,"-52"46"-16105"0"0,3 23 2139 0 0,-5 3-525 0 0,-1-1 0 0 0,-7 35 0 0 0,-5 32-298 0 0,-15 120 241 0 0,19-148-1288 0 0,-9 45 271 0 0,-5-1 1 0 0,-5-1 0 0 0,-64 156-1 0 0,53-168-338 0 0,-73 157 224 0 0,83-195-332 0 0,-2 0 0 0 0,-68 89 0 0 0,72-112-133 0 0,0 2 39 0 0,-63 58 0 0 0,36-45-83 0 0,-93 61 1 0 0,-48 3-43 0 0,49-31 0 0 0,63-37 0 0 0,56-31 0 0 0,0 0 0 0 0,2 2 0 0 0,0 1 0 0 0,-43 37 0 0 0,58-43 0 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,1 1 0 0 0,1-1 0 0 0,-14 31 0 0 0,9-11 0 0 0,1 1 0 0 0,2 0 0 0 0,-8 46 0 0 0,-10 112 0 0 0,25-163 0 0 0,-13 144-1333 0 0,7 0 0 0 0,21 280 1 0 0,-1-319-7722 0 0,36 175 1 0 0,-21-196 4266 0 0,0 0 828 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -11441,7 +15271,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">8411 3891 92 0 0,'-10'-4'1398'0'0,"0"-1"0"0"0,-1 2 0 0 0,0-1 0 0 0,0 1-1 0 0,0 1 1 0 0,0 0 0 0 0,-13-1 0 0 0,23 3-1282 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 1 0 0,-2 5 231 0 0,1 1 1 0 0,0-1 0 0 0,1 12 0 0 0,-1-5 148 0 0,-2 372 4307 0 0,29 0-3921 0 0,-11-187-823 0 0,-9-65-965 0 0,-18 222 1 0 0,-31-32-4985 0 0,-2-103-3351 0 0,34-166 6464 0 0,-3-9 479 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="576.55">11747 3933 2068 0 0,'42'44'13592'0'0,"-38"-34"-12868"0"0,2 9 186 0 0,-2-1 0 0 0,4 24 0 0 0,-6-32-202 0 0,24 273 4519 0 0,-11-78-4045 0 0,72 347-1505 0 0,-36-259-3260 0 0,-25-119-1041 0 0,32 174-10134 0 0,-42-273 12223 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="576.54">11747 3933 2068 0 0,'42'44'13592'0'0,"-38"-34"-12868"0"0,2 9 186 0 0,-2-1 0 0 0,4 24 0 0 0,-6-32-202 0 0,24 273 4519 0 0,-11-78-4045 0 0,72 347-1505 0 0,-36-259-3260 0 0,-25-119-1041 0 0,32 174-10134 0 0,-42-273 12223 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1527.96">1792 2392 660 0 0,'-13'-20'1421'0'0,"4"5"170"0"0,0 2-1 0 0,-20-24 1 0 0,27 34-1417 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,-5 0-1 0 0,7 1-55 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-3 4 0 0 0,-20 42 1338 0 0,18-30-1062 0 0,0 0-1 0 0,1 1 0 0 0,0 0 0 0 0,2 0 0 0 0,-2 30 1 0 0,5 100 931 0 0,0-138-1239 0 0,21 253 1192 0 0,-2-55-556 0 0,-15-135-276 0 0,-4 1 0 0 0,-12 114-1 0 0,6-153-249 0 0,0-1-1 0 0,-2 0 1 0 0,-2 0-1 0 0,-1-1 0 0 0,-2-1 1 0 0,-1 0-1 0 0,-26 44 0 0 0,30-62-143 0 0,0 0-1 0 0,-1-1 0 0 0,0-1 1 0 0,-1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0-1 0 0 0,-1 0 1 0 0,-23 13-1 0 0,11-11-8 0 0,1 0 1 0 0,-1-2-1 0 0,-1-1 1 0 0,0-2-1 0 0,-34 7 0 0 0,-101 14 118 0 0,93-18-14 0 0,0 2 0 0 0,-85 28 0 0 0,106-23-63 0 0,0 2 0 0 0,2 2 0 0 0,-67 43 0 0 0,81-44-79 0 0,2 2-1 0 0,0 2 1 0 0,1 0-1 0 0,1 2 1 0 0,-32 42-1 0 0,30-29-266 0 0,2 1 0 0 0,1 1-1 0 0,3 1 1 0 0,2 2 0 0 0,1 0-1 0 0,2 1 1 0 0,3 1 0 0 0,-20 88 0 0 0,29-91-919 0 0,1-1 1 0 0,2 1 0 0 0,3 0 0 0 0,3 48-1 0 0,2-54-1131 0 0,1 0 0 0 0,2 0-1 0 0,1 0 1 0 0,27 71 0 0 0,-5-42-645 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-743.37">1633 1867 1632 0 0,'-5'-11'5689'0'0,"3"45"-5121"0"0,-10 56 1 0 0,1-4 70 0 0,3 34 159 0 0,6 1-1 0 0,6 0 1 0 0,36 234 0 0 0,-17-239-436 0 0,6-1-1 0 0,45 117 1 0 0,-53-180-204 0 0,2 0 0 0 0,2-2-1 0 0,62 90 1 0 0,-66-113-132 0 0,1-1-1 0 0,1 0 1 0 0,2-2-1 0 0,0-1 1 0 0,1-1-1 0 0,2-1 1 0 0,0-1 0 0 0,1-2-1 0 0,0-1 1 0 0,2-1-1 0 0,0-2 1 0 0,1-1-1 0 0,62 17 1 0 0,-35-17 7 0 0,0-2 0 0 0,1-3 0 0 0,-1-3 0 0 0,1-3 0 0 0,0-2 0 0 0,93-12 0 0 0,102-29 185 0 0,36-6 432 0 0,-218 39-275 0 0,-1 3 0 0 0,75 5 0 0 0,-124 2-149 0 0,0 0 0 0 0,0 1 0 0 0,0 2 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 1 0 0 0,-1 2 0 0 0,1 0 1 0 0,-1 1-1 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,-2 2 1 0 0,1 0-1 0 0,-2 1 0 0 0,0 1 0 0 0,-1 1 1 0 0,0 0-1 0 0,19 28 0 0 0,20 44 580 0 0,-4 3 1 0 0,45 112-1 0 0,-78-166-763 0 0,131 337-847 0 0,-134-334 467 0 0,75 264-7339 0 0,-29-83-3489 0 0,-41-161 8411 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2014.15">21787 16 500 0 0,'-40'-6'11946'0'0,"40"8"-11834"0"0,-3 14 69 0 0,1 0 1 0 0,0 0-1 0 0,2 0 1 0 0,0 0-1 0 0,3 28 1 0 0,1 17-77 0 0,-35 622 3477 0 0,18-583-3318 0 0,-3 0 0 0 0,-5 0 0 0 0,-64 181 0 0 0,63-220-137 0 0,-3-1 0 0 0,-3-2 1 0 0,-2 0-1 0 0,-2-2 0 0 0,-76 98 1 0 0,83-126-70 0 0,-1-1 0 0 0,-1-2 0 0 0,-1 0 1 0 0,-2-2-1 0 0,0-1 0 0 0,-1-1 0 0 0,-1-2 1 0 0,-1-1-1 0 0,-57 22 0 0 0,44-23-54 0 0,-1-3 0 0 0,-1-2-1 0 0,0-1 1 0 0,0-3-1 0 0,-1-2 1 0 0,-94-1 0 0 0,-289-31-93 0 0,72 2 174 0 0,337 23-74 0 0,-370-7 173 0 0,296 11-75 0 0,2 4-1 0 0,-103 22 1 0 0,123-14 22 0 0,-135 49 0 0 0,165-45-56 0 0,1 1 0 0 0,1 1 0 0 0,0 3-1 0 0,-42 33 1 0 0,44-28 116 0 0,1 3-1 0 0,2 1 0 0 0,1 1 1 0 0,2 3-1 0 0,2 0 1 0 0,-38 56-1 0 0,48-57-11 0 0,1 0 0 0 0,-32 78 0 0 0,29-46-26 0 0,4 1 1 0 0,2 0-1 0 0,-17 142 1 0 0,29-145 5 0 0,-4 56 478 0 0,-41 181 0 0 0,47-285-579 0 0,0 0 0 0 0,-2-1 0 0 0,1 0 0 0 0,-2-1 0 0 0,-1 1-1 0 0,0-2 1 0 0,0 1 0 0 0,-2-1 0 0 0,-16 18 0 0 0,16-22-27 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-21 4 0 0 0,16-5-11 0 0,-1-2 0 0 0,0 0 0 0 0,0-2 0 0 0,0 0 0 0 0,-22-2 0 0 0,-102-17 6 0 0,105 11-23 0 0,0 2 0 0 0,-1 1-1 0 0,-71 3 1 0 0,77 5 13 0 0,1 2-1 0 0,0 2 1 0 0,0 0-1 0 0,1 3 1 0 0,0 0-1 0 0,1 2 1 0 0,0 2-1 0 0,1 0 1 0 0,1 2-1 0 0,-33 25 1 0 0,28-17 27 0 0,2 3-1 0 0,0 1 1 0 0,2 1 0 0 0,1 1 0 0 0,1 2 0 0 0,2 1 0 0 0,-37 63-1 0 0,21-19-219 0 0,4 2 0 0 0,4 1-1 0 0,3 2 1 0 0,-29 123-1 0 0,11 75-4008 0 0,33 2-6878 0 0,16-246 7369 0 0,10 64 0 0 0,0-43 1002 0 0</inkml:trace>
@@ -11621,7 +15451,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">214 372 1700 0 0,'-4'-37'4012'0'0,"-2"0"0"0"0,-1 1 0 0 0,-19-56 0 0 0,26 91-3931 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 2 19 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 2 0 0 0,-15 38 1983 0 0,13-31-1672 0 0,-10 30 542 0 0,2 2-1 0 0,-9 66 1 0 0,-1 88-196 0 0,16-137-494 0 0,-3 100 278 0 0,17 213-1 0 0,0-273-380 0 0,4 0-1 0 0,4-2 1 0 0,34 110-1 0 0,-45-186-136 0 0,1 0-1 0 0,0 0 0 0 0,12 19 1 0 0,-17-34-11 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,8 1-1 0 0,-9-3-4 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,5-3 0 0 0,6-5-2 0 0,0-1 0 0 0,13-13-1 0 0,-26 23-6 0 0,52-50-65 0 0,-3-3 0 0 0,58-80-1 0 0,70-133-366 0 0,32-96-258 0 0,-116 196 404 0 0,192-281-106 0 0,-285 446 392 0 0,12-17 0 0 0,2 1 0 0 0,0 0-1 0 0,0 1 1 0 0,30-24 0 0 0,-44 40 3 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,1 0-1 0 0,-2 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0 3 24 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,-1 1 1 0 0,-1 6-1 0 0,-28 123 391 0 0,17-84-145 0 0,-13 97 0 0 0,8 55 180 0 0,14-141-341 0 0,-2 114 279 0 0,17 205-1 0 0,-5-296-360 0 0,5 0-1 0 0,3-1 1 0 0,48 162-1 0 0,-49-209-251 0 0,17 34 0 0 0,-24-61-283 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,13 10 1 0 0,-18-16 8 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-1 0 0 0,-2-1-506 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0-1 1 0 0,3-3 0 0 0,13-15-2687 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="677.68">874 2808 376 0 0,'-14'-22'15682'0'0,"10"34"-14073"0"0,2-1-944 0 0,1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,4 19 0 0 0,0 20 626 0 0,-6 110 1694 0 0,-1-17-1403 0 0,29 446 1393 0 0,-15-353-2536 0 0,42 339-400 0 0,-50-543-778 0 0,-2 1 0 0 0,-1 0 0 0 0,-8 66 0 0 0,7-100 631 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-2-1 0 0 0,2 1-49 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-22-31-6100 0 0,22 32 6124 0 0,-7-15-1936 0 0,1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-6-24 0 0 0,6 19 811 0 0,-13-40-1788 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1032.6">55 3240 1532 0 0,'-6'-12'666'0'0,"-7"-16"1570"0"0,-10-29 1 0 0,20 47-1728 0 0,0 1 0 0 0,1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,2-13-1 0 0,-1 20-288 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,4-5 0 0 0,-2 3 206 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,6-1 0 0 0,10-1 980 0 0,0 0-1 0 0,0 1 0 0 0,36-1 1 0 0,-52 4-1301 0 0,295-7 3110 0 0,-138 7-2815 0 0,653-38-286 0 0,-276-15-5534 0 0,-460 45 3667 0 0,222-37-8090 0 0,-76-8 2399 0 0,-119 25 4756 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1032.58">55 3240 1532 0 0,'-6'-12'666'0'0,"-7"-16"1570"0"0,-10-29 1 0 0,20 47-1728 0 0,0 1 0 0 0,1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,2-13-1 0 0,-1 20-288 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,4-5 0 0 0,-2 3 206 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,6-1 0 0 0,10-1 980 0 0,0 0-1 0 0,0 1 0 0 0,36-1 1 0 0,-52 4-1301 0 0,295-7 3110 0 0,-138 7-2815 0 0,653-38-286 0 0,-276-15-5534 0 0,-460 45 3667 0 0,222-37-8090 0 0,-76-8 2399 0 0,-119 25 4756 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2053.8">4064 876 1104 0 0,'-3'1'975'0'0,"1"1"1"0"0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-4 0 1 0 0,9-4-70 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,5-4 1 0 0,81-94 3020 0 0,-52 58-3690 0 0,-2-2 1 0 0,-2-1 0 0 0,-2-2 0 0 0,48-100 0 0 0,-43 63 197 0 0,-4-1 0 0 0,25-108 0 0 0,-50 163 1 0 0,-6 21-176 0 0,-6 18-15 0 0,-6 23 56 0 0,-11 42-1 0 0,-2 35 403 0 0,5 0 0 0 0,-7 132 1 0 0,21 221 34 0 0,14-240-733 0 0,-3-113-292 0 0,-1-41-185 0 0,-4-49 53 0 0,1 0 0 0 0,7 31 0 0 0,-7-40-114 0 0,0-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,2-1-1 0 0,8 11 1 0 0,-12-15 221 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2 0-1 0 0,0 0-309 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,5-5 1 0 0,3-2-1388 0 0,-1-1 0 0 0,1-1 0 0 0,15-17 0 0 0,3-7-862 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2481.82">5289 642 1116 0 0,'4'-7'6063'0'0,"-5"7"-5710"0"0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,-1 2-1 0 0,-7 9 477 0 0,1-1-1 0 0,1 1 1 0 0,0 1-1 0 0,0-1 1 0 0,-9 24-1 0 0,-18 66 3089 0 0,28-80-3630 0 0,2 0 1 0 0,0 0 0 0 0,2 0-1 0 0,0 0 1 0 0,1 1-1 0 0,1-1 1 0 0,2 0-1 0 0,0 0 1 0 0,1 1-1 0 0,0-1 1 0 0,2-1-1 0 0,1 1 1 0 0,0-1 0 0 0,2 0-1 0 0,11 22 1 0 0,-10-25-285 0 0,0-1 1 0 0,1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,2-1 0 0 0,-1-1 0 0 0,2-1 0 0 0,-1 0 0 0 0,2 0-1 0 0,-1-2 1 0 0,1 0 0 0 0,0-1 0 0 0,30 8 0 0 0,-29-11-12 0 0,1 0 0 0 0,1-2 0 0 0,-1 0 0 0 0,0-1 1 0 0,0-1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0-2 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0-2 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-2 1 0 0,20-14-1 0 0,-13 7 6 0 0,-1-2 0 0 0,0-1 0 0 0,-1-1-1 0 0,-1 0 1 0 0,-1-2 0 0 0,-1 0 0 0 0,-2-1 0 0 0,0 0 0 0 0,-1-2 0 0 0,-1 0 0 0 0,13-37 0 0 0,-15 29 16 0 0,-1-1-1 0 0,-2 0 1 0 0,-1 0 0 0 0,6-66 0 0 0,-13 74-3 0 0,-1 0 1 0 0,0 0 0 0 0,-2 0 0 0 0,-2 1 0 0 0,0-1-1 0 0,-2 0 1 0 0,-9-27 0 0 0,6 33 38 0 0,0 0 0 0 0,-2 0 0 0 0,0 0 0 0 0,-1 2 0 0 0,-2-1 0 0 0,0 2-1 0 0,0 0 1 0 0,-2 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,-22-10 0 0 0,10 6 13 0 0,0 3 0 0 0,-1 0 0 0 0,-1 2 0 0 0,0 2 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 2 0 0 0,-1 2 0 0 0,-42 0 1 0 0,52 4-50 0 0,-1 2 1 0 0,1 0 0 0 0,0 2 0 0 0,0 1-1 0 0,-37 11 1 0 0,47-10-23 0 0,1 0 0 0 0,-1 1 1 0 0,1 1-1 0 0,0 0 0 0 0,1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-19 22 1 0 0,15-13-229 0 0,0 1 0 0 0,2 1 0 0 0,1 0 0 0 0,1 2 0 0 0,0-1 0 0 0,2 1 0 0 0,0 1 1 0 0,-13 49-1 0 0,16-43-978 0 0,2 0-1 0 0,2 1 1 0 0,0 0 0 0 0,1 35 0 0 0,5-30-1404 0 0,1 0 0 0 0,1-1-1 0 0,2 0 1 0 0,2 0 0 0 0,18 51 0 0 0,-6-28-321 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3071.2">6945 804 740 0 0,'-44'17'10825'0'0,"59"-28"-5623"0"0,20-14-1992 0 0,4 1-664 0 0,67-57 0 0 0,-69 48-2220 0 0,-1-2 1 0 0,-1-2-1 0 0,-3-1 1 0 0,-1-2-1 0 0,-2-1 0 0 0,34-61 1 0 0,-42 61 278 0 0,33-88-1 0 0,-48 110-357 0 0,-1 6 103 0 0,-1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,2-19 1 0 0,-24 50 138 0 0,7 0-221 0 0,2 1 1 0 0,1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-9 39 0 0 0,3 9-247 0 0,3 2 1 0 0,2-1-1 0 0,2 74 1 0 0,16 210-9 0 0,-2-206-15 0 0,16 181-3599 0 0,-16-202-2450 0 0,2-44-1188 0 0,-8-70 5853 0 0,-1-5 453 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,5 9 0 0 0,11 2-1928 0 0</inkml:trace>
@@ -11740,6 +15570,283 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink142.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:29:43.311"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">15 370 1224 0 0,'-14'6'8850'0'0,"14"-6"-8774"0"0,17-17 3879 0 0,0 1-3345 0 0,9-15 871 0 0,40-61 0 0 0,-35 39 344 0 0,43-100 0 0 0,-70 139-784 0 0,-8 20-738 0 0,-11 22-301 0 0,-2 32 153 0 0,-13 87 1 0 0,18-56 204 0 0,1 139 1 0 0,11-213-363 0 0,-1 17-54 0 0,3 0 0 0 0,5 37 0 0 0,-7-71-7 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,8-15-4182 0 0,6-20-2563 0 0,-8 13 3513 0 0,3-5 337 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="510.84">546 29 1096 0 0,'18'-20'12304'0'0,"-21"35"-9962"0"0,3-12-2348 0 0,-7 24 1002 0 0,-2 0-1 0 0,0-1 1 0 0,-16 30-1 0 0,-45 76 407 0 0,45-90-1178 0 0,-10 22 139 0 0,-41 101-1 0 0,76-165-343 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,38-4 406 0 0,-34 3-403 0 0,10-1-105 0 0,-1-1-1 0 0,0 0 0 0 0,-1-1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0-1 0 0 0,17-11 0 0 0,-22 12-1093 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,14-17 0 0 0,-16 15-1119 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,5-14 0 0 0,-3 8-38 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="850.73">647 306 4 0 0,'-3'-3'8910'0'0,"3"3"-8773"0"0,-6 10 2218 0 0,-5 15-1091 0 0,-2 18 2257 0 0,7-26-1056 0 0,-7 31 0 0 0,5-3-649 0 0,3-25-1626 0 0,1 0 1 0 0,1 0 0 0 0,1 0 0 0 0,1 32-1 0 0,1-50-396 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3 2 0 0 0,-4-3-147 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1-1 0 0 0,25-20-6280 0 0,-10 5 4014 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1523.57">1161 79 88 0 0,'0'0'266'0'0,"1"0"0"0"0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,-1 1-109 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1-84 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 1 1 0 0,-39 10 686 0 0,42-10-680 0 0,-13 5 120 0 0,0 0 0 0 0,1 1 0 0 0,0 1 0 0 0,0 0-1 0 0,1 1 1 0 0,0 0 0 0 0,0 1 0 0 0,1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,-11 14-1 0 0,15-18-117 0 0,1 1-1 0 0,0 1 0 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,2 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,1 14 1 0 0,0-21-86 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,4 1 0 0 0,-2-2-102 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,7-6 0 0 0,3-4-349 0 0,-1-1-1 0 0,-1 1 1 0 0,0-2-1 0 0,-1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,11-22 1 0 0,2-11 393 0 0,20-58 1 0 0,-23 45 2305 0 0,-20 61-2225 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-7 5 661 0 0,-7 11 114 0 0,6-4-446 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,1 1 1 0 0,0 1-1 0 0,1-1 0 0 0,-3 21 0 0 0,3 9 1494 0 0,3 81 1 0 0,4-48-1190 0 0,0 210 323 0 0,-4-283-957 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-2 1 1 0 0,1-1 0 0 0,0 0-1 0 0,-5 6 1 0 0,3-7-10 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-5 0 0 0 0,-97-4 87 0 0,62-3-6791 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3266.63">1992 481 644 0 0,'-9'-5'4603'0'0,"19"3"-2876"0"0,27 3-1217 0 0,-33 0-99 0 0,289 7 922 0 0,304 20-1319 0 0,-538-22 14 0 0,149 9-305 0 0,-207-15 276 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,-7-6-22 0 0,-16-4-17 0 0,-403-123 514 0 0,410 125-310 0 0,30 7-76 0 0,27 7-16 0 0,13 3-41 0 0,10 0 95 0 0,-2 3-1 0 0,0 2 1 0 0,61 24 0 0 0,-122-38-88 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 2-1 0 0,-1-2 10 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 1 0 0,-6 4 300 0 0,-1 1 0 0 0,0-2 0 0 0,-14 8 0 0 0,14-8-107 0 0,-91 54 1807 0 0,-19 10-3584 0 0,81-49-3002 0 0,-48 18-1 0 0,50-25 1920 0 0,-2 0 458 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3795.94">1286 746 148 0 0,'-3'-3'7941'0'0,"3"2"-7813"0"0,-7 13 2422 0 0,-6 20-1233 0 0,10-18-1057 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,1 18 0 0 0,-3 27-648 0 0,3-58 180 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,0 1 1 0 0,0-3-78 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,6-3-1229 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4134.55">1407 874 1160 0 0,'-6'12'6860'0'0,"5"12"-4782"0"0,1-22-2064 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,4 1 0 0 0,1 0 7 0 0,0 0 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1-1 1 0 0,-1 1-1 0 0,8-4 0 0 0,-11 4 39 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-4-1 0 0,1 5 12 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-6-2 1 0 0,4 2 45 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 1 1 0 0,0-1 0 0 0,-8 0 0 0 0,2 2-293 0 0,0-1-1 0 0,1 1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 2 1 0 0,1 0 0 0 0,0 0 0 0 0,-12 8 0 0 0,17-9-437 0 0,2-2-56 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,-1 5 1 0 0,4 0-1642 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink143.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:29:48.698"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">103 44 1292 0 0,'-10'-43'6858'0'0,"22"70"-5740"0"0,18 59 1375 0 0,60 122 1 0 0,-39-104-2327 0 0,20 38-708 0 0,-17-52-2651 0 0,-50-84 2719 0 0,0 1-600 0 0,0-1-1 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,10 9-1 0 0,-5-8-723 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="339">571 93 1100 0 0,'0'-1'228'0'0,"-4"-5"773"0"0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-10-8 0 0 0,14 13-914 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 0 0 0,-4 3 171 0 0,-1 0 1 0 0,2 0-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,2 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-7 11 0 0 0,-6 12 542 0 0,-19 39 0 0 0,12-21-497 0 0,-123 205 502 0 0,56-98-1066 0 0,89-149 150 0 0,-43 80-1338 0 0,40-72-63 0 0,2 0 0 0 0,-6 18 0 0 0,11-31 1246 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,6 0-1472 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="834.92">756 601 1684 0 0,'-3'-5'6436'0'0,"3"5"-6283"0"0,-8 4 2057 0 0,-4 9-1319 0 0,-46 83 3737 0 0,35-49-3575 0 0,-22 58 0 0 0,43-100-1067 0 0,-1 9 211 0 0,4-14-189 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,36-13-25 0 0,11-4 112 0 0,-16 9-3511 0 0,-10 4-8412 0 0,-16 4 9677 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1175.8">827 797 964 0 0,'1'-1'619'0'0,"0"0"-1"0"0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 2-368 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-2 2 1499 0 0,1-1-1500 0 0,-27 26 4617 0 0,19-15-4627 0 0,2 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-3 22-1 0 0,2 15-4852 0 0,8 1-5796 0 0,-1-33 6614 0 0,-4 1 461 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink144.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:29:54.094"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 140 0 0,'1'1'408'0'0,"0"0"0"0"0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,35 11-274 0 0,-15-4 381 0 0,40 14-408 0 0,0-3 0 0 0,97 15 0 0 0,132 2-179 0 0,-248-31 63 0 0,533 26-311 0 0,-446-26 257 0 0,202-3-430 0 0,-147-3 266 0 0,212-14-669 0 0,-100-26 936 0 0,-158 20-83 0 0,-124 19 55 0 0,10 0-47 0 0,0-1 1 0 0,0-2-1 0 0,37-12 1 0 0,-62 18 39 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-2 99 0 0,1 1-74 0 0,-9 0 7 0 0,-4-1-17 0 0,0 1 0 0 0,0 1-1 0 0,0 0 1 0 0,-17 3 0 0 0,-15 0-39 0 0,22-4-48 0 0,-34-6 0 0 0,35 3 72 0 0,-34 0-1 0 0,199 14-109 0 0,-119-10 39 0 0,0-1 1 0 0,-1-1-1 0 0,1-1 0 0 0,37-10 0 0 0,-126 72 2544 0 0,24-19-2576 0 0,-18 16-6615 0 0,49-47 5062 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink145.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:30:09.327"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">342 8 144 0 0,'2'-8'6650'0'0,"-15"24"-4518"0"0,-20 29-866 0 0,-28 41-95 0 0,-142 150 0 0 0,170-201-1072 0 0,36-34-24 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,5 0 1 0 0,49 0 693 0 0,-28-2-2886 0 0,31-5 1 0 0,-48 5 1331 0 0,-1 0 1 0 0,1-1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,18-13-1 0 0,-14 1 2506 0 0,-11 4 2296 0 0,-29 26 22 0 0,19-6-3758 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-3 12 0 0 0,4-10-401 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,2 10 0 0 0,-2-20-161 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,3-1 1 0 0,12 0-1712 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="364.72">854 329 236 0 0,'-7'-1'7007'0'0,"24"6"-5100"0"0,39 2-1689 0 0,-21 0-5093 0 0,-41-2 730 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="707.07">854 414 964 0 0,'-3'4'1180'0'0,"1"0"-156"0"0,4 1-256 0 0,3-2-168 0 0,0 0-96 0 0,5 0-67 0 0,0 0-89 0 0,2-2-88 0 0,0 0-52 0 0,3 1-88 0 0,2-1-132 0 0,2 1-308 0 0,1-1-517 0 0,4-1-471 0 0,1 2-204 0 0,1-1-16 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink146.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:30:06.044"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12 256 864 0 0,'0'0'130'0'0,"-1"0"0"0"0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,12-18-120 0 0,-5 7 840 0 0,65-103 1282 0 0,-20 34-2042 0 0,-39 63-89 0 0,-11 20-9 0 0,-5 11 12 0 0,-8 32 14 0 0,-11 88 1 0 0,14-68 68 0 0,-11 90-205 0 0,18-139-190 0 0,1-12-93 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,-1 5 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="417.05">422 39 892 0 0,'5'3'6117'0'0,"-5"-4"-6013"0"0,-2 22 2006 0 0,-9 27-1084 0 0,2-16-581 0 0,-2-1-1 0 0,-1 0 1 0 0,-2-1 0 0 0,-31 53-1 0 0,44-83-442 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,19-1 87 0 0,25-11-801 0 0,-22-1-3759 0 0,37-24 0 0 0,-46 27 2799 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="757.53">596 161 1436 0 0,'-5'-2'5261'0'0,"5"2"-5154"0"0,-12 7 1536 0 0,-10 12-74 0 0,13-8-1102 0 0,1 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,2 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-5 16 0 0 0,5-10-843 0 0,0 0-1 0 0,2 0 0 0 0,0 0 0 0 0,0 32 1 0 0,3-50 219 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,0-1 1 0 0,6-3-1783 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1408.1">902 117 860 0 0,'2'-3'671'0'0,"0"0"0"0"0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0-4 0 0 0,-1 7-557 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 1-71 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-2 0-1 0 0,-6 2 39 0 0,0-1 1 0 0,0 1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0 0-1 0 0,0 1 1 0 0,-12 8-1 0 0,15-9-40 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-4 10-1 0 0,5-9-13 0 0,0 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,2 12 0 0 0,-1-19-77 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,2-1-1 0 0,3-1-246 0 0,1 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,10-10 0 0 0,-7 6 496 0 0,1-1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,0-1 1 0 0,5-16-1 0 0,-9 10 1185 0 0,-2 19-1334 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-2 1 0 0 0,-2 7 61 0 0,-1 0 0 0 0,1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1 10 0 0 0,-4 72 568 0 0,5-37-199 0 0,1-36-223 0 0,1-9-44 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,-6 16 0 0 0,7-24-134 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-5 0 0 0 0,-1-1-300 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-2 0 0 0,-12-2 1 0 0,22 4-28 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,6-5-1773 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1888.66">1279 202 856 0 0,'-4'14'3515'0'0,"3"-9"-1022"0"0,13-11-900 0 0,-2-3 919 0 0,-17 18-4809 0 0,6 1-3200 0 0,1-5 3638 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2328.85">1261 377 784 0 0,'0'0'193'0'0,"-1"1"-1"0"0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,0-1-99 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,4-2 1624 0 0,-9 8 856 0 0,0-1-4115 0 0,22-6-11172 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink147.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:30:17.485"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">95 26 740 0 0,'0'0'212'0'0,"-1"0"-1"0"0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-2-1 846 0 0,2 0-847 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,15-6 1449 0 0,25 0-2269 0 0,-19 6 610 0 0,-1 1 0 0 0,23 3 0 0 0,-37-3 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,8 7 0 0 0,-12-8 24 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0-1-1 0 0,-2 4 1 0 0,-2 4 104 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-13 13-1 0 0,-1-3-55 0 0,-1-1 0 0 0,-1-1-1 0 0,-1-1 1 0 0,0-1 0 0 0,-35 15-1 0 0,47-21-3 0 0,26-10-1 0 0,6 0-89 0 0,70 6-9 0 0,-81-3 27 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 1 0 0 0,11 6 0 0 0,-16-8 11 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 6-1 0 0,-1-4 55 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,-6 6 0 0 0,0 1 77 0 0,-1 0 0 0 0,-1-2 1 0 0,1 1-1 0 0,-2-1 0 0 0,-25 14 1 0 0,32-20-115 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-2-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-9-4 1 0 0,0 1-160 0 0,-4-2-1320 0 0,-34-14-1 0 0,54 20 1317 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,10-4-2009 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="681.61">590 58 1016 0 0,'-12'-3'4242'0'0,"13"3"-4164"0"0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,42-1 151 0 0,0 3-1 0 0,0 1 1 0 0,67 16-1 0 0,-109-19-144 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 2-1 0 0,-2 9 581 0 0,0-1 0 0 0,-1 0-1 0 0,-10 21 1 0 0,8-18-391 0 0,-37 88 1255 0 0,-31 84-1217 0 0,62-155-788 0 0,8-23-2453 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1068.83">623 339 300 0 0,'0'0'279'0'0,"0"0"-1"0"0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0-77 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,3 0-1 0 0,37 4 637 0 0,-33-3-59 0 0,153 10 1377 0 0,-52-9-6243 0 0,-84-5-4256 0 0,-19 3 6439 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink148.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:30:20.396"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">331 3 396 0 0,'5'-3'13167'0'0,"-9"5"-12917"0"0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-4 5 1 0 0,5-7-94 0 0,-226 257 3763 0 0,202-233-3854 0 0,18-18-47 0 0,0-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-9 14-1 0 0,43-39-7886 0 0,38-24-2264 0 0,-45 30 8235 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="789.81">674 76 756 0 0,'-10'-1'18790'0'0,"0"17"-18571"0"0,6-10 542 0 0,-172 217 2659 0 0,115-151-3339 0 0,53-62-463 0 0,-19 22 1001 0 0,9-14-5343 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink149.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:30:23.104"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">155 60 136 0 0,'-7'2'561'0'0,"0"0"0"0"0,-1 0 1 0 0,1 1-1 0 0,0 0 0 0 0,0 1 0 0 0,-12 8 1 0 0,15-10-465 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-3 8 0 0 0,4-11-78 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,2 2 0 0 0,5 2-10 0 0,0 0 0 0 0,0-1 0 0 0,1 0 1 0 0,14 3-1 0 0,-14-4-22 0 0,-1-1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,16-6-1 0 0,-22 6 42 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1-7 0 0 0,-1 10 2 0 0,-1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,-2-1 1 0 0,0 1-2 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,-6-1 0 0 0,-1 1-15 0 0,-1 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,-23 1 1 0 0,19 1-376 0 0,0 1-1 0 0,-32 9 1 0 0,39-8-674 0 0,1 0 0 0 0,0 1 0 0 0,-15 8 0 0 0,13-5-401 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="403.54">598 1 168 0 0,'-1'0'187'0'0,"0"0"-1"0"0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,-18 14 346 0 0,13-10 91 0 0,-199 179 4292 0 0,81-68-4755 0 0,-40 44-778 0 0,104-83-5290 0 0,58-70 4253 0 0,1-1 130 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="804.04">377 453 176 0 0,'-21'9'3649'0'0,"17"-6"-3517"0"0,0 0 1 0 0,0-1-1 0 0,0 2 0 0 0,0-1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-2 6-1 0 0,3-8-110 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,4 2 0 0 0,-2-1-24 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,6-4 0 0 0,-1 0 275 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,9-14 1 0 0,-14 20-47 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-5-1 0 0,0 7-179 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-3 1 0 0 0,-11 0-413 0 0,0 0 0 0 0,0 0 0 0 0,0 2 0 0 0,-28 5 0 0 0,-58 21-6823 0 0,72-18 4812 0 0,0 3 297 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -11770,6 +15877,338 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">92 162 424 0 0,'2'-1'137'0'0,"-1"0"-1"0"0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0-2 0 0 0,-1 4-49 0 0,5-6 4244 0 0,-10 11-1902 0 0,-5-20-111 0 0,10 15-2287 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-16 11 78 0 0,14-11-27 0 0,0 1-76 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 4 1 0 0,1-7-8 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,10-4 31 0 0,6-8 7 0 0,-4-4 83 0 0,15-27 0 0 0,-26 43-95 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 7 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 2 0 0 0,-19 47 202 0 0,20-47-228 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 1 1 0 0,-2-2 26 0 0,14-7 190 0 0,-11 1-156 0 0,1 0 0 0 0,-2 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,2-7 0 0 0,-5 13 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-2 17-21 0 0,2-13-45 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 3 1 0 0,0-2 3 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,3-1 0 0 0,-5 2-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-2 0 0 0,-3-11 82 0 0,4 12-38 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,-4-3 0 0 0,5 3 11 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4 1 1 0 0,1 0-3 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-6 4 0 0 0,7-5-49 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1 5 1 0 0,1-6-8 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,4 2 1 0 0,-3-3 2 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,5-4 1 0 0,-6 4-2 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0-4 1 0 0,-1 1 4 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,-6-10 0 0 0,8 13 7 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-2 3 0 0 0,0-1-13 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 9 1 0 0,3-11-3 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-2 1 0 0,-1 1-1 0 0,0 0 1 0 0,4 1-1 0 0,-2-1 3 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,6-5 0 0 0,-5 3 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2-9 0 0 0,-4 13-2 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1-1 1 0 0,-2 0 28 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-5-3 0 0 0,4 4-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 2-1 0 0,-1-1 0 0 0,-9 2 0 0 0,11-1-19 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-1 5 0 0 0,-2 5-7 0 0,4-10-4 0 0,1 0 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,1 7 1 0 0,-1-9 2 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,3 3 1 0 0,-3-3-1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1-1 1 0 0,13-20 19 0 0,-11 17-18 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-2-12 1 0 0,1 16-2 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,-1 0 0 0 0,-28 5 61 0 0,23-3-62 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-7 4 0 0 0,10-6-3 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 8 0 0 0,1-1-3 0 0,4-9 4 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,0 3 0 0 0,2 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,8 5 0 0 0,-11-8 2 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-3 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-3-7-1 0 0,0 1 6 0 0,3 8-7 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 2 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 4 0 0 0,0 0-2 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,4 6-1 0 0,-5-10 5 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,2-1 0 0 0,-2 0 2 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-2-1 0 0,0 2 2 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-3 0-1 0 0,-8 1 34 0 0,0 0 0 0 0,0 1-1 0 0,1 1 1 0 0,-23 7-1 0 0,32-9-31 0 0,1-1 9 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-1 1 0 0 0,3-1-30 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,2 2-372 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,5 6 0 0 0,9 11-3901 0 0,-16-19 4229 0 0,3 3-1224 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 8-1 0 0,-1 5-1364 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="644.51">132 111 904 0 0,'1'-1'386'0'0,"1"0"0"0"0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0-1 1 0 0,-21-15 2981 0 0,21 17-3255 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-48 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 2-1 0 0,-1 0-2 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-2 6 0 0 0,4-9-134 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,2 3 1 0 0,-1-2-842 0 0,7 8-3213 0 0,-1-11-3153 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink150.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:30:35.172"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">49 337 160 0 0,'1'-1'5077'0'0,"4"-5"-607"0"0,4-4-2678 0 0,8-8-2023 0 0,8-7 170 0 0,51-65 112 0 0,-61 70-36 0 0,13-26-1 0 0,33-66 138 0 0,-57 103-131 0 0,-10 15-2 0 0,-7 18-1 0 0,11-19 24 0 0,1 0 1 0 0,-1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-4 6-1 0 0,3-6 15 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1-1 0 0,-3 8 1 0 0,-16 101 604 0 0,5-27-270 0 0,5-29 140 0 0,-9 68 685 0 0,7-42-1003 0 0,11-76-445 0 0,0 4 721 0 0,2-13-660 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="338.86">25 610 204 0 0,'-13'-2'766'0'0,"1"0"2845"0"0,28 6 1603 0 0,82 14-3560 0 0,53-3-701 0 0,-47-5-94 0 0,-69-5-432 0 0,-32-3-2697 0 0,-22-5-4640 0 0,7 2 4330 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink151.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:30:41.597"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 44 0 0,'-1'6'8547'0'0,"1"-6"-8411"0"0,19 7 2925 0 0,26 2-1660 0 0,-41-9-1378 0 0,67 7 1171 0 0,-64-7-1680 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,11-2 0 0 0,-12-1-2912 0 0,-6 4 3308 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-2-2-2075 0 0,2 2 2075 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,-6-1-2016 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="336.74">1 95 660 0 0,'2'1'1185'0'0,"-2"-1"-1115"0"0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 1 1394 0 0,1-1-1394 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,12 5 2598 0 0,15 3 124 0 0,14 2-620 0 0,14 4-1982 0 0,1-5-5651 0 0,-53-9 4689 0 0,1 1 1 0 0,0-1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,5-1-1 0 0,6-3-1488 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink152.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:30:40.883"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">212 19 780 0 0,'5'-19'12553'0'0,"-7"22"-12289"0"0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 5 0 0 0,-6 13 827 0 0,-35 54 1353 0 0,-77 115-934 0 0,88-146-1421 0 0,32-44-80 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,20 2 219 0 0,-18-2-201 0 0,18 1-264 0 0,0-1 0 0 0,0-1 0 0 0,38-5 1 0 0,-45 3-1476 0 0,0 0 0 0 0,20-9 0 0 0,-26 9-668 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,13-10 0 0 0,-13 8 285 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="344.4">301 243 1368 0 0,'3'-16'4195'0'0,"-2"4"1747"0"0,-1 12-5789 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,-3 5 358 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-2 7 0 0 0,-2 10 729 0 0,-3 31 0 0 0,5-29-997 0 0,2-10-165 0 0,1 0 0 0 0,2 27-1 0 0,0-10-894 0 0,-1-33 615 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,18-12-6612 0 0,-6 3 3839 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink153.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:30:38.507"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12 34 240 0 0,'0'-6'8502'0'0,"1"3"-6433"0"0,8 0-1972 0 0,0 1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0 0-1 0 0,17 6 0 0 0,-25-8-79 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 2-1 0 0,-1-1 32 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-2 4-1 0 0,-3 2 55 0 0,1-1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,-12 12 1 0 0,-15 8 2 0 0,-46 28-1 0 0,84-58-88 0 0,-1 1-19 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,3 0-1 0 0,4-1 3 0 0,-1 1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,10 7 1 0 0,-14-7 31 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 11 1 0 0,0-14 44 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,-3 3-1 0 0,1-2 9 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-7 3 1 0 0,-4 2-2 0 0,-1-2 0 0 0,-1 0 0 0 0,1 0 0 0 0,-21 2 0 0 0,36-8-244 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-4-1-1 0 0,5 2-9 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-2-1 0 0,2 1-209 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,2-2-1 0 0,5-5-1772 0 0,3-1 364 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="679.83">417 13 1012 0 0,'-1'-1'514'0'0,"0"0"0"0"0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-5 0 3799 0 0,19 3-3026 0 0,69 2-404 0 0,-52-4-655 0 0,61 9 1 0 0,-90-9-161 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,-1 3 445 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,-5 10 0 0 0,-1 7 80 0 0,-16 50 808 0 0,13-39-1131 0 0,-15 70 0 0 0,21-78-302 0 0,2-11-57 0 0,1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,0 0 0 0 0,3 24 0 0 0,-1-38-174 0 0,2 9-905 0 0,-3-10 1114 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-2-8-6510 0 0,1-9 2043 0 0,0 10 2287 0 0,-3-2 327 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1019.75">422 286 1080 0 0,'-1'0'107'0'0,"1"0"1"0"0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,13-4 2157 0 0,18 3 545 0 0,91 12 2867 0 0,0 4-7927 0 0,-79-15-6179 0 0,-23 0 4856 0 0,-5 0 1571 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1362.38">1263 132 396 0 0,'6'3'15015'0'0,"-4"-1"-15617"0"0,-2-1 57 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1 5-1481 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1716.1">1229 353 416 0 0,'0'2'457'0'0,"0"-1"-1"0"0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,16 14 14210 0 0,-18-11-14248 0 0,2 0-3429 0 0,10-6-2963 0 0,8-5 54 0 0,-7 3 3610 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink154.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:30:49.422"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">320 74 676 0 0,'1'0'102'0'0,"-1"0"0"0"0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1-1 42 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,-3-3 0 0 0,-6-2 62 0 0,0 1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 2 1 0 0,-1 0-1 0 0,-21 3 0 0 0,29-2-130 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-5 4 0 0 0,6-5-15 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,0 1-1 0 0,2 4 1 0 0,-1-1 25 0 0,1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1-1 0 0 0,8 6 0 0 0,-10-8-199 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,9-2-1 0 0,-4 0-924 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,10-9-1 0 0,-6 3-580 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="376.81">374 37 1336 0 0,'-2'-15'3965'0'0,"2"15"-3910"0"0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-2 0 119 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 3-1 0 0,0 19 528 0 0,0 0 0 0 0,2 0 0 0 0,0 0 0 0 0,2 0 0 0 0,10 40 0 0 0,0 12-229 0 0,-11-60-297 0 0,0-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,-5 22 0 0 0,5-32-59 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-8 4 0 0 0,-5-1 213 0 0,0 0 0 0 0,0-1-1 0 0,0-1 1 0 0,-35 2-1 0 0,-75-8-891 0 0,123 3 246 0 0,-24-4-4922 0 0,14-3-5482 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink155.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:30:55.146"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">83 233 876 0 0,'19'-9'8176'0'0,"22"-22"-8146"0"0,-23 16 792 0 0,-7 7-603 0 0,-1-1 0 0 0,15-16 1 0 0,-10 7-54 0 0,-1 0 0 0 0,13-23 0 0 0,-8 7 20 0 0,-9 10 450 0 0,-10 24-629 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,-7 14 68 0 0,-1 4 140 0 0,1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,2 1 0 0 0,0-1-1 0 0,1 1 1 0 0,1 0 0 0 0,0 20 0 0 0,-10 68 130 0 0,4 16-260 0 0,-1-1 40 0 0,5-81 496 0 0,2-25-1710 0 0,1-3-4147 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="515.41">3 678 432 0 0,'-2'7'16719'0'0,"7"-5"-17803"0"0,70 8 3064 0 0,40-6-360 0 0,-13-1 462 0 0,-84-2-1756 0 0,23 2 530 0 0,41 7-1 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink156.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:30:57.629"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">253 66 956 0 0,'7'-8'2524'0'0,"-4"5"-1559"0"0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,3-7-1 0 0,-4 9-846 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,0 0-21 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-3-1-1 0 0,-9-1 284 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 1 0 0 0,-18 10 0 0 0,25-13-241 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,0 0 0 0 0,5 6 0 0 0,-4-7-208 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0-1 0 0 0,7-2 0 0 0,-3 1-817 0 0,1-1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,-1 1 1 0 0,0-1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,11-13 0 0 0,-11 9 239 0 0,0 0-1 0 0,0 0 0 0 0,8-22 0 0 0,-12 25 905 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-2-1-1 0 0,1 0 0 0 0,-1-12 1 0 0,0 21-142 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,-6 18 1906 0 0,3-4-1734 0 0,1 0 0 0 0,0 0 0 0 0,2 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 1 0 0 0,2 19 0 0 0,2-4-264 0 0,1-1-1 0 0,12 39 0 0 0,-16-61-8 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-4 8 0 0 0,4-9-6 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-5 0 0 0 0,-45 3-261 0 0,19-10-4088 0 0,33 6 4143 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,0 0-1 0 0,5-6-2323 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink157.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:31:00.031"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 88 0 0,'1'2'6148'0'0,"3"2"-2903"0"0,97 9 1081 0 0,-33-9-4663 0 0,-20-2-3162 0 0,0 2-3775 0 0,-42-3 5601 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="529.97">52 163 164 0 0,'-5'7'10034'0'0,"94"1"-5628"0"0,-20-1-4351 0 0,3 0-3973 0 0,6-1-4627 0 0,-54-4 6573 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink158.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:30:59.025"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">223 7 1112 0 0,'5'-6'5271'0'0,"-6"6"-5206"0"0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-7 5 965 0 0,-1 1 0 0 0,1 0 1 0 0,-7 9-1 0 0,-31 51 817 0 0,12-17-1157 0 0,0-8-410 0 0,17-22-215 0 0,-25 39-1 0 0,35-50-36 0 0,5-8-7 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,2 0-1 0 0,0 1 60 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,6 0 0 0 0,4-1-1058 0 0,-1 0-1 0 0,1-1 1 0 0,-1-1 0 0 0,0 0-1 0 0,15-7 1 0 0,-23 9-223 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,5-5 0 0 0,-4 2-583 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="339.65">304 189 632 0 0,'1'-1'429'0'0,"0"0"0"0"0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-2 0 0 0,-5 1 3368 0 0,-4 10-2018 0 0,-1 3-1133 0 0,1 1-1 0 0,0 1 1 0 0,1-1-1 0 0,1 1 1 0 0,0 1 0 0 0,0-1-1 0 0,2 1 1 0 0,-8 25 0 0 0,0 13-207 0 0,-6 55-1 0 0,18-106-431 0 0,-2 18-11 0 0,-3 34-587 0 0,4-43-2958 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink159.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:30:58.082"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">48 26 204 0 0,'0'-1'357'0'0,"1"1"0"0"0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,18-17 16096 0 0,-18 17-16679 0 0,-3 4-1240 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 7 0 0 0,-1 0-2392 0 0,2-3 1930 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="339.34">5 265 1456 0 0,'-2'8'2991'0'0,"2"-8"-2858"0"0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,6-8 4357 0 0,0-2-4119 0 0,-7 10-352 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-3 12 1466 0 0,1 2-4344 0 0,2-14 2613 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,9-2-2554 0 0,-1 0 275 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -11807,6 +16246,329 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink160.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:31:02.340"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">124 46 720 0 0,'1'0'5300'0'0,"-7"5"-2258"0"0,-8 2 635 0 0,14-10-3578 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,2-3 1 0 0,2 1-57 0 0,0 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,12 2 0 0 0,-13-1 20 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,4 3 0 0 0,-5-4-4 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 6 1 0 0,0 0 96 0 0,-1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 1 0 0,0-2-1 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,-7 9 1 0 0,-10 12 25 0 0,-39 41 1 0 0,42-49-77 0 0,-96 99 145 0 0,112-118-224 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-5 2-1 0 0,8-4 33 0 0,-1 1-55 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,-3 2 106 0 0,9-2 272 0 0,-4 0-374 0 0,0 1-1 0 0,0 0 6 0 0,29 5 968 0 0,10 2-668 0 0,79 4 1 0 0,-50-6-197 0 0,75 11 136 0 0,-133-16-467 0 0,2 0 110 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink161.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:31:05.470"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">53 275 260 0 0,'1'-2'370'0'0,"-1"0"-1"0"0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,3-2 0 0 0,22-24 306 0 0,-12 14-2 0 0,-9 9-585 0 0,10-10 302 0 0,0-2-1 0 0,-2 1 1 0 0,0-2-1 0 0,-1 1 1 0 0,0-2-1 0 0,12-28 1 0 0,-21 40 106 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0-12 0 0 0,-3 23-402 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,-2 2-1 0 0,-6 13 237 0 0,1 9 66 0 0,1 0 1 0 0,1 1 0 0 0,1-1 0 0 0,-2 35-1 0 0,2 118-5 0 0,7-150-439 0 0,0-21-44 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,-5 20 0 0 0,5-27-644 0 0,0 2-2409 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="384.53">25 561 272 0 0,'-10'0'973'0'0,"-4"0"6630"0"0,31 7-2822 0 0,4-3-4184 0 0,0-1 0 0 0,1 0 0 0 0,-1-2 0 0 0,31-1-1 0 0,-26-1-229 0 0,13 1-130 0 0,19-1-193 0 0,-22 4-2830 0 0,-35-3 1900 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,6 5-4433 0 0,-9-2 3159 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink162.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:31:07.557"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">159 96 660 0 0,'-4'0'555'0'0,"1"0"-1"0"0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,-4-2 0 0 0,8 3-472 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,0-2-1 0 0,2-2 11 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,9-1 1 0 0,-3 0-43 0 0,42-2 327 0 0,-50 3-317 0 0,0 1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,2 1 1 0 0,-2 0-7 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 6 0 0 0,0 0 49 0 0,-1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,-1 1 0 0 0,-10 13 0 0 0,-5 0 34 0 0,-1 0 0 0 0,-1-1 0 0 0,-1-1 1 0 0,-27 18-1 0 0,-6 6 19 0 0,44-35-121 0 0,-13 12 43 0 0,-39 25 0 0 0,136-41 200 0 0,153 16-64 0 0,-128-6-7038 0 0,-73-13 195 0 0,-17-1 4725 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink163.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:31:09.276"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">200 8 940 0 0,'5'-7'6945'0'0,"-17"20"-4451"0"0,-20 24-1048 0 0,-12 22 205 0 0,17-25-1249 0 0,1 2 0 0 0,-28 52 0 0 0,53-86-432 0 0,-1 0 62 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 4 0 0 0,2-5-16 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,13 2-363 0 0,0-1 1 0 0,0-1-1 0 0,-1 0 0 0 0,24-6 0 0 0,56-18-6844 0 0,-93 25 7171 0 0,0-1-60 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-3 0 0 0,0 0 841 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1-4 0 0 0,-23 34 2543 0 0,14-12-2716 0 0,0-1-1 0 0,2 2 0 0 0,-1-1 0 0 0,2 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-2 17 1 0 0,-1 35-755 0 0,6 3-3869 0 0,3-60 262 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink164.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:31:08.068"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">38 18 884 0 0,'10'-6'1465'0'0,"-8"5"-1173"0"0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,5 0 1262 0 0,-9 6-207 0 0,-1 2 2279 0 0,19-23-970 0 0,-25 31-13069 0 0,7-11 8444 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="387.59">6 223 584 0 0,'-1'2'477'0'0,"0"0"0"0"0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 3 0 0 0,0 1 844 0 0,27-17 63 0 0,0-2-1190 0 0,-17 11 279 0 0,-15 10 1174 0 0,-19 33 1804 0 0,29-47-4446 0 0,11-13-10101 0 0,-13 14 9044 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink165.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:31:10.078"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 712 0 0,'0'0'1031'0'0,"12"3"5415"0"0,3 0-3803 0 0,83 3-1682 0 0,-35-3-1408 0 0,-31-2-386 0 0,5 0-1854 0 0,-14 2-2142 0 0,-18-1 3088 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="713.08">26 124 488 0 0,'0'0'2294'0'0,"1"-1"-1185"0"0,10 0 4790 0 0,-12 2-5572 0 0,-4 3 3284 0 0,11-3-2972 0 0,10 2-530 0 0,164 23-2577 0 0,-140-22 181 0 0,19 3-4856 0 0,-51-6 5453 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink166.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:31:12.647"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">129 55 444 0 0,'-1'-1'254'0'0,"0"1"0"0"0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,-1 0 52 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-4 4 0 0 0,-5 6 349 0 0,1 1 0 0 0,-12 20 0 0 0,20-30-275 0 0,-3 6-150 0 0,0 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,0 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,6 12 1 0 0,-6-16-157 0 0,1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,9 0 0 0 0,-10-2-67 0 0,1 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0-1-1 0 0,9-7 0 0 0,8-10-13 0 0,0 0 0 0 0,23-32-1 0 0,-37 43 13 0 0,1-1-18 0 0,-2 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 0 0 0 0,-1 0-1 0 0,7-20 1 0 0,-10 25 44 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,-2-9 1 0 0,2 13-8 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-8-4 0 0 0,4 3-47 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 2 1 0 0,-12-3 0 0 0,4 3-548 0 0,0 0-1 0 0,0 1 1 0 0,-1 1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 1-1 0 0,-23 7 1 0 0,24-5-1161 0 0,0 0 1 0 0,1 2-1 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 1 0 0,-18 13-1 0 0,16-7-394 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink167.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:31:15.836"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">157 107 588 0 0,'-4'3'8613'0'0,"-4"1"-3115"0"0,8-9-2075 0 0,6-11-3125 0 0,-2 5-268 0 0,-2 8-27 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,6-5 0 0 0,34-20-5 0 0,-33 22-4 0 0,-5 3 8 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,5 2 0 0 0,6 0 10 0 0,29 10 1 0 0,-37-10-12 0 0,-4-1 12 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,-1 5 0 0 0,-1 3 57 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-10 9 0 0 0,-9 9 50 0 0,-39 32-1 0 0,-133 100 365 0 0,141-116-356 0 0,56-43-124 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,12 5 259 0 0,31 1 328 0 0,-22-4-455 0 0,101 12-134 0 0,43 7 5 0 0,-115-14 15 0 0,-34-6-14 0 0,-1 1-1 0 0,21 6 1 0 0,-35-8-1 0 0,3 0-1 0 0,2 1 2277 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink168.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:31:30.226"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">102 8 232 0 0,'-2'-2'630'0'0,"-1"1"-1"0"0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-7 0 490 0 0,54 6 1463 0 0,358 5-1535 0 0,-346-11-980 0 0,-34-1 368 0 0,-23 1-425 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-14-1 172 0 0,-272-6 270 0 0,44 3 1430 0 0,186 1-1009 0 0,82 5-837 0 0,38-2-1 0 0,-20-1-86 0 0,402-1 149 0 0,-497 2 113 0 0,-394 10 688 0 0,383-5-897 0 0,133-1-87 0 0,55-3 62 0 0,296-7 165 0 0,-405 4 154 0 0,-26 1 39 0 0,-29 1-153 0 0,-463 19 334 0 0,492-17-546 0 0,14 1 15 0 0,17 0 11 0 0,74 2 62 0 0,-3 0 272 0 0,150-11 0 0 0,-228 3 513 0 0,-23-1 62 0 0,-24-1-300 0 0,-111-5-387 0 0,-195 14 0 0 0,423 3-465 0 0,367 0 520 0 0,-787-14 300 0 0,265 6-454 0 0,-91 4 177 0 0,230 2-498 0 0,202 0 245 0 0,-356-6-5955 0 0,0-3-5118 0 0,65 3 7986 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink169.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:31:33.864"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">266 3784 604 0 0,'2'15'1944'0'0,"-4"3"6864"0"0,0-16-8617 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 5 329 0 0,-1-36 372 0 0,-5-369 3852 0 0,7 325-3736 0 0,-4-69 1093 0 0,-18-56-1552 0 0,16 164-542 0 0,-11-169 192 0 0,13 175-192 0 0,-6-39 0 0 0,5 49-13 0 0,-3-25 32 0 0,-2 2 73 0 0,3-1 0 0 0,1 1 1 0 0,3-68-1 0 0,7-58-21 0 0,5-50-56 0 0,4 105 57 0 0,-5-2-1 0 0,-7-173 1 0 0,-8 93-150 0 0,-3-58 50 0 0,4 154 102 0 0,-8-79-18 0 0,2 77-147 0 0,4-129-1 0 0,6 205 55 0 0,15-177 160 0 0,-10 145-92 0 0,2 0-16 0 0,-2 26-4 0 0,0-39 1 0 0,0 25-23 0 0,-5 42 8 0 0,-1 1 0 0 0,0 3-4 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 3 1 0 0,-1 5 19 0 0,-6 15-28 0 0,-1 0 0 0 0,-2 0-1 0 0,0-1 1 0 0,-1-1 0 0 0,-2 0 0 0 0,-21 29 0 0 0,15-28-34 0 0,2-1-33 0 0,-41 42 0 0 0,65-75 22 0 0,0 0 0 0 0,0 0-1 0 0,4-11 1 0 0,5-8 34 0 0,17-20-27 0 0,43-50 0 0 0,26-38 132 0 0,-94 124 164 0 0,-9 19 136 0 0,-6 20-154 0 0,7-8-135 0 0,0-1 0 0 0,1 1 0 0 0,1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,8 26 0 0 0,42 106 122 0 0,-32-98-286 0 0,-11-34 941 0 0,2-4-4033 0 0,-8-12 1221 0 0,0 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,8 2 0 0 0,0 2-800 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -11838,6 +16600,356 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">61 54 196 0 0,'0'0'211'0'0,"0"0"-1"0"0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,4 11 7189 0 0,1 3-6801 0 0,0 11 1959 0 0,-1 38 0 0 0,0-5-781 0 0,3 21-248 0 0,-3-29-973 0 0,12 67 1 0 0,-12-100-561 0 0,-1 0 0 0 0,-2 32 0 0 0,0-35-102 0 0,3-4-160 0 0,-3-11 173 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,-5-15-9107 0 0,5 14 8567 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1-2-1 0 0,0-6-2145 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="414.02">76 315 1032 0 0,'-1'-23'3845'0'0,"0"21"-3597"0"0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,3-3 0 0 0,1 1 76 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,9-3 0 0 0,-5 3-140 0 0,1 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 2 0 0 0,11-1 0 0 0,-3 2 114 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1 1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 1 1 0 0,0 1-1 0 0,20 12 1 0 0,-23-11 40 0 0,0 1 1 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,13 16 0 0 0,-22-24-220 0 0,0 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-6 4 0 0 0,-6 4 46 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,-1-1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,-21 4 1 0 0,1-2-131 0 0,0-2 1 0 0,0-2-1 0 0,-56 0 1 0 0,78-4-563 0 0,0-1 0 0 0,-16-3-1 0 0,-7-6-3975 0 0,37 9 4045 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-2 0 0 0,4-12-2149 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="998.9">10 39 168 0 0,'-10'-15'26360'0'0,"25"15"-25326"0"0,241-12 304 0 0,-3 0-2931 0 0,-237 14 535 0 0,-15-2 718 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-229 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 2 0 0 0,-13 11-3146 0 0,-4 1 719 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink170.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:32:28.441"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">82 1 192 0 0,'-1'2'144'0'0,"0"0"0"0"0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-2 1 1 0 0,-20 5 1552 0 0,13-3-532 0 0,12-5-1095 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0-9 0 0,35 1 88 0 0,38-1-93 0 0,-201-3 767 0 0,167-1-894 0 0,83-13-254 0 0,-138 16 319 0 0,-1 1 1 0 0,1 0-1 0 0,-28 5 0 0 0,115-2 109 0 0,-102 2 123 0 0,-14 2-111 0 0,37-5-10 0 0,20-3 70 0 0,1 0-181 0 0,44-4 30 0 0,-39 3-41 0 0,-17 2-12 0 0,-7-1-19 0 0,-14 2-704 0 0,14 0-1687 0 0,12-1-566 0 0,-6 0 2874 0 0,-17-6 9471 0 0,40 7-9282 0 0,1 1 0 0 0,-1 0 0 0 0,0 2-1 0 0,23 7 1 0 0,-39-10 672 0 0,-10-2-2497 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink171.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:32:31.537"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">34 0 764 0 0,'-2'1'293'0'0,"1"-1"-1"0"0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 2-1 0 0,-9 32 1443 0 0,9-28-1582 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,4 8 0 0 0,-4-12-131 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,5 2 1 0 0,-5-3 13 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,3-3 1 0 0,34-27 202 0 0,-21 15 96 0 0,-16 14-190 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-5 1 0 0,-2 4 17 0 0,-1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-6-3 0 0 0,6 5-360 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-7 2-1 0 0,2-1-1861 0 0,0 1-1 0 0,0 1 0 0 0,0 0 0 0 0,-15 7 0 0 0,11-2 150 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink172.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:32:32.091"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 688 0 0,'2'0'5784'0'0,"8"2"-2077"0"0,20 1-4048 0 0,50-4-348 0 0,-29 9-6219 0 0,-45-7 5491 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink173.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:32:32.796"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3 104 544 0 0,'-3'0'7330'0'0,"4"-3"-7179"0"0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,4-4 0 0 0,11-14 290 0 0,-4 6 49 0 0,-11 12-356 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-5 945 0 0,-14 40 34 0 0,6 6-840 0 0,5-34-257 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,2 5-1 0 0,8 14 55 0 0,-5-15-2393 0 0,-3-7 657 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink174.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:32:33.358"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">37 70 608 0 0,'-1'-1'225'0'0,"1"1"1"0"0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 0-41 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,3 0 0 0 0,17 1 608 0 0,33-1 1 0 0,-7-1-2348 0 0,-3 5-7339 0 0,-40-4 7054 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="589.29">432 8 452 0 0,'-9'-8'5956'0'0,"23"10"-3957"0"0,0 0-1721 0 0,-12-2-202 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 2 1 0 0,-1-1 3 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,-3 3 0 0 0,-18 24 202 0 0,17-24-246 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-3 10-1 0 0,7-17-27 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,41-3-828 0 0,-40 3 605 0 0,0 0-293 0 0,16-4-1087 0 0,-8 0-5373 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1068.46">1 427 592 0 0,'19'7'6931'0'0,"27"2"-5276"0"0,17-5-2272 0 0,-22-4-3371 0 0,-25 0 1108 0 0,-6 0 1323 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1711.43">486 378 28 0 0,'0'0'57'0'0,"0"0"0"0"0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,11-3 899 0 0,11-1-613 0 0,-22 4-319 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-7 8 644 0 0,-18 12-53 0 0,16-13-110 0 0,8-6-477 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 2-1 0 0,1-1-22 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,3 1 0 0 0,19 4-37 0 0,-17-4 32 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,8 5-1 0 0,-14-7 40 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,-21 19 952 0 0,17-15-625 0 0,-30 26-249 0 0,2 2-8923 0 0,25-24 6831 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7802.33">551 419 16 0 0,'0'0'364'0'0,"-9"0"220"0"0,-8 0 225 0 0,11-1-230 0 0,-3 4 1293 0 0,4 0 79 0 0,7-3-1901 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,1-1 109 0 0,-3 3-121 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,-18-6 531 0 0,-23 2 81 0 0,34 3-786 0 0,0 1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 2 1 0 0,0-1-1 0 0,0 1 0 0 0,-8 3 1 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink175.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:32:48.767"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">36 65 376 0 0,'3'-21'2549'0'0,"-3"16"-2014"0"0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,3-8 0 0 0,-5 11-141 0 0,5 15 1171 0 0,12 222 1034 0 0,-7-132-2478 0 0,-11-64-786 0 0,0-15-5005 0 0,-3-26 2143 0 0,3-1 1997 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="342.04">2 277 32 0 0,'0'-1'129'0'0,"0"0"0"0"0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,9 0 328 0 0,0-1-1 0 0,0 2 1 0 0,19 1 0 0 0,-17 0-129 0 0,38 4 99 0 0,-37-3-752 0 0,0-1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1-1-1 0 0,1-1 1 0 0,20-2-1 0 0,-33 2-67 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,2-4 0 0 0,1-5-796 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="681.63">334 101 900 0 0,'4'-33'3674'0'0,"-4"29"-1938"0"0,-2 15-422 0 0,0-5-1059 0 0,-3 28 506 0 0,1 1-1 0 0,1 0 0 0 0,2 0 0 0 0,6 49 1 0 0,-2 13-1672 0 0,-2-87 153 0 0,-1 2-1055 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1059.07">480 152 500 0 0,'3'10'6144'0'0,"7"70"-3530"0"0,-4-29-1516 0 0,-2-28-752 0 0,0 33 0 0 0,-4-56-349 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1-11-249 0 0,2 8 219 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,6-1 0 0 0,7-4 6 0 0,31-8 0 0 0,-15 4-23 0 0,-25 9-11 0 0,17-9-732 0 0,-23 10 428 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-2 0 0 0,0 0-905 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1410.27">741 173 120 0 0,'2'-3'563'0'0,"0"0"53"0"0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1-5 0 0 0,-18 19 2003 0 0,13-3-2310 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,1 0 0 0 0,-2 13 0 0 0,2-17-230 0 0,-5 31-88 0 0,-7 56 1015 0 0,9-31-6425 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1750.44">941 210 184 0 0,'8'-11'7402'0'0,"-11"19"-5898"0"0,-2 6-1109 0 0,0 0 0 0 0,1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,0 0 0 0 0,1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,3 15 0 0 0,-5-5-351 0 0,1-25-47 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-5-14-295 0 0,2 2 87 0 0,1 0-1 0 0,1 0 0 0 0,0-17 0 0 0,1 28 210 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,1-1 1 0 0,21-6 96 0 0,-11 7-17 0 0,0 0 1 0 0,17 2-1 0 0,-23-2-71 0 0,28 1-1453 0 0,-30-1 460 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,6-4 0 0 0,-3-1-418 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2090.85">1163 232 288 0 0,'17'-34'3140'0'0,"5"-8"1584"0"0,-25 75 1445 0 0,5 36-4441 0 0,2-36-1648 0 0,13 57-1 0 0,4-8-4392 0 0,-6-24-2926 0 0,-8-34 4415 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink176.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:32:44.133"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">849 1262 508 0 0,'0'-1'152'0'0,"0"1"0"0"0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-1 9 1484 0 0,0 1-815 0 0,-8 32 1666 0 0,-5 62 0 0 0,1-5-636 0 0,-32 179-881 0 0,45-270-635 0 0,-1 5-4488 0 0,5-21-2739 0 0,1-1 4536 0 0,1-1 281 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="498.86">806 1270 568 0 0,'6'-5'342'0'0,"0"0"-1"0"0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,10 2-1 0 0,3 0-23 0 0,-1 2 0 0 0,0 0-1 0 0,0 2 1 0 0,-1 0-1 0 0,0 1 1 0 0,24 13-1 0 0,-33-16-254 0 0,-1 2 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,10 14 0 0 0,-15-20 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,-3 3 1 0 0,1-1 29 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-10-2 0 0 0,-11-1-94 0 0,0-1-1 0 0,-28-7 1 0 0,53 9 4 0 0,-26-6-34 0 0,-6-1-448 0 0,12 5-3621 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-68095.58">707 291 120 0 0,'0'0'566'0'0,"16"5"9917"0"0,-24-1-4478 0 0,13-10-5201 0 0,5-4-677 0 0,1 1 1 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 2-1 0 0,1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,16-4 0 0 0,-23 7-54 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,10 9 0 0 0,-13-10-17 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 0 0 0,-4 5 0 0 0,-5 8 214 0 0,0-2-1 0 0,-1 1 1 0 0,-1-2-1 0 0,-13 13 1 0 0,9-10-323 0 0,-17 20 189 0 0,-121 114 252 0 0,140-139-347 0 0,-13 13 73 0 0,-44 46 1 0 0,71-69-108 0 0,0 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,15 1 492 0 0,-6-1-616 0 0,61-1 110 0 0,270 12 323 0 0,-332-11-682 0 0,5 1 1231 0 0,-13 0-1006 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,25 12-18948 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-66925.03">1420 491 268 0 0,'-14'-1'15211'0'0,"38"-27"-11679"0"0,-4 8-3223 0 0,-2-1 1 0 0,0-1-1 0 0,-2-1 1 0 0,0 0-1 0 0,-1-1 0 0 0,-2-1 1 0 0,0 0-1 0 0,-2-1 0 0 0,-1 0 1 0 0,8-30-1 0 0,-18 48 540 0 0,-5 18-586 0 0,-7 19-125 0 0,9-11-60 0 0,-5 21 115 0 0,1 0 0 0 0,-2 62 1 0 0,10-45-105 0 0,1 0 0 0 0,20 104 1 0 0,-21-157-366 0 0,3 17 827 0 0,-4-19-687 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,2-1 0 0 0,9-20-13556 0 0,-8 14 10744 0 0,0 0 43 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-66093.26">1907 521 1396 0 0,'7'-4'10530'0'0,"8"-6"-8253"0"0,-3 1-1131 0 0,-1 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 0-1 0 0,11-16 1 0 0,36-64 2052 0 0,-4 5-2364 0 0,-51 82-792 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-4 0 0 0,-2 8-30 0 0,-1 0-6 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 1 1 0 0,-6 23-6 0 0,-3 141 19 0 0,0 1-22 0 0,2 8 291 0 0,12-116-261 0 0,-5-59-45 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,5-6-3016 0 0,4-9-8485 0 0,2 4 1727 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-64857.37">2451 548 8 0 0,'-3'-4'18597'0'0,"42"-62"-14921"0"0,14-28-2984 0 0,-23 29-288 0 0,10-23 301 0 0,-11 32-115 0 0,-25 44-404 0 0,-8 23-46 0 0,-3 25-100 0 0,3 0 1 0 0,-1 63-1 0 0,13 73 234 0 0,-4-119-164 0 0,1 10 130 0 0,1 44 1177 0 0,-1-63-434 0 0,-5-44-964 0 0,4 2-500 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-63738.39">1588 666 276 0 0,'-3'-3'11795'0'0,"3"10"-9488"0"0,2 34 1818 0 0,1-26-3079 0 0,0 0 1 0 0,1-1-1 0 0,6 15 0 0 0,-9-27-33 0 0,2 4 6 0 0,25-11-24419 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29951.72">122 480 612 0 0,'-8'2'461'0'0,"1"1"0"0"0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 2 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-6 6 1 0 0,8-8-342 0 0,0-1 0 0 0,0 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,3 8-1 0 0,-2-7-70 0 0,1-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,6 4 1 0 0,-3-4-27 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,15 2 0 0 0,-12-3-24 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,15-8 0 0 0,-15 5 50 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,8-18 0 0 0,-12 21 72 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-2 1 0 0 0,1 0 0 0 0,-5-8 0 0 0,5 11-47 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-4-1 0 0 0,2 2-49 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-10 4 0 0 0,1 1-465 0 0,-1 1 1 0 0,1 1-1 0 0,1 0 1 0 0,-1 1-1 0 0,2 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-14 16 1 0 0,9-6-2006 0 0,0 0 1 0 0,-21 35 0 0 0,19-19 149 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31946.74">148 1242 620 0 0,'0'0'1350'0'0,"-10"12"1998"0"0,1 6-2485 0 0,0 1 0 0 0,2-1 0 0 0,0 2 0 0 0,-8 36 0 0 0,-4 82 817 0 0,8-50-1666 0 0,10-87-74 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,0 1 0 0 0,-1-2-11 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,16-24-2762 0 0,-13 14 1783 0 0,-1 1 0 0 0,-1 0-1 0 0,4-22 1 0 0,-4 15-55 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32284.65">145 1279 908 0 0,'9'-33'2895'0'0,"-9"31"-2740"0"0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,2-1 0 0 0,-4 2-30 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,9 24 1165 0 0,-8-21-863 0 0,96 239 4910 0 0,-36-55-6638 0 0,-60-181-21 0 0,2 6-3681 0 0,2-4-1247 0 0,-1-5 3861 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33432.75">569 0 128 0 0,'0'0'485'0'0,"3"4"1804"0"0,1 4-1763 0 0,-2 31 508 0 0,-1 6-473 0 0,-3-15-3366 0 0,1-23 1579 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33771.78">589 264 236 0 0,'0'3'2827'0'0,"-2"15"-2770"0"0,-2-6-218 0 0,0 1-1 0 0,-3 26 0 0 0,2-14-1202 0 0,3-12 513 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33772.78">531 567 16 0 0,'2'8'988'0'0,"1"0"88"0"0,-1-2-284 0 0,1-2-272 0 0,-1 2-152 0 0,3-2-84 0 0,-3-1-72 0 0,3 2-68 0 0,-2-1-44 0 0,2 2-36 0 0,-3-2-140 0 0,3 2-196 0 0,-5 1-440 0 0,2-1-324 0 0,1 0-132 0 0,-3 3 32 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34112.54">589 880 416 0 0,'0'7'1388'0'0,"0"2"60"0"0,0-3-212 0 0,3 0-552 0 0,-3-1-371 0 0,2 1-197 0 0,-2-1-48 0 0,0 2-32 0 0,0-1-68 0 0,0 0-116 0 0,0 2-141 0 0,-2 0-215 0 0,-1 2-364 0 0,3-1-316 0 0,-2 1-56 0 0,0 0 88 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34513.68">589 1165 432 0 0,'4'14'1438'0'0,"11"53"1399"0"0,-11-45-3517 0 0,-1 0-1 0 0,1 36 1 0 0,-14 94 479 0 0,11-136 692 0 0,1 1 1 0 0,0-1-1 0 0,9 28 1 0 0,-8-34-431 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-3 12 0 0 0,-15 31-4111 0 0,16-43 2965 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34514.68">602 1976 368 0 0,'53'130'6763'0'0,"-50"-123"-6583"0"0,1 1 0 0 0,-1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,-1-1 0 0 0,0 16-1 0 0,0-18-815 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-4 7 0 0 0,1-6-1017 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink177.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:36:49.068"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">13 81 128 0 0,'-9'-8'6627'0'0,"6"5"-5448"0"0,6 2 368 0 0,-3 1-1430 0 0,26-1 371 0 0,-23 1-429 0 0,33-2-72 0 0,47 3 0 0 0,-17 1-8118 0 0,-60-2 6603 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1031.55">435 9 120 0 0,'0'0'760'0'0,"-14"16"3222"0"0,14-10-3829 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,2-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1-1-1 0 0,0 1 1 0 0,8 4 0 0 0,-5-3-120 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,14 3 0 0 0,-21-6-13 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,3-4 0 0 0,-1-1 149 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-2 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-13 0 0 0,-3 18-96 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-1-3 0 0 0,2 4-45 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-2 0 0 0 0,-2 0-88 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-8 5 0 0 0,-6 5-1404 0 0,-26 20 1 0 0,24-16-431 0 0,-26 24-3252 0 0,36-26 3652 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink178.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:36:50.620"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11 109 372 0 0,'0'0'3708'0'0,"20"-2"-1012"0"0,104-5-1713 0 0,-43 4-5482 0 0,-70 2 3099 0 0,2 0 96 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="332.94">386 0 500 0 0,'1'36'7632'0'0,"4"4"-4598"0"0,5 13-3796 0 0,-5-33-2311 0 0,13 35 0 0 0,-14-44 1303 0 0,-2-1 126 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="779.95">0 475 352 0 0,'28'1'5770'0'0,"23"4"-4070"0"0,13 1-1684 0 0,-35-4-325 0 0,-12 0-1828 0 0,0-1 1 0 0,23-2-1 0 0,-31 0 1094 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1334.34">415 403 492 0 0,'25'-12'3659'0'0,"22"-3"-976"0"0,-38 13-2338 0 0,0 0 0 0 0,0 1-1 0 0,13 0 1 0 0,8 5 968 0 0,-29-4-1284 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-16 26 207 0 0,13-22-157 0 0,-3 4-56 0 0,-1 1 0 0 0,0-2 0 0 0,-12 11 0 0 0,14-13-21 0 0,-1-1 0 0 0,1 1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-7 12 0 0 0,12-18 21 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 1-1 0 0,1-1 36 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,2-1 0 0 0,21 3 69 0 0,1-1 0 0 0,47-4 0 0 0,-15 0-2329 0 0,-9 0-6222 0 0,-38 3 6534 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink179.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:36:54.733"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6 1 316 0 0,'-1'3'406'0'0,"0"0"0"0"0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2 4 0 0 0,4 27 1219 0 0,-8-31-1560 0 0,1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,3 0 0 0 0,2 0-40 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,10-3 0 0 0,18-4-39 0 0,1 2 1 0 0,-1 1-1 0 0,1 2 1 0 0,0 1-1 0 0,55 5 1 0 0,-86-2 20 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,4 6-1 0 0,-8-11-4 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,2 1 0 0 0,7-10 29 0 0,-3 2-22 0 0,-3 2-9 0 0,0 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,9 4-1 0 0,8 2 6 0 0,0-1 0 0 0,0-1 0 0 0,1-1 0 0 0,36 2 0 0 0,-17-5 6 0 0,69-6 1 0 0,-103 4-21 0 0,76-10-22 0 0,-74 8 38 0 0,0 1-1 0 0,0-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,17-9 0 0 0,-25 12-6 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-2-1 0 0,1 4-106 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,-17 8-3892 0 0,9-3 2298 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2008.2">518 423 668 0 0,'10'-4'3530'0'0,"-9"16"-762"0"0,-1-10-2919 0 0,-1 15 715 0 0,0 0 0 0 0,-7 23 0 0 0,5-23-380 0 0,0 0 0 0 0,-1 26 0 0 0,2 3 89 0 0,-9 49 0 0 0,1-6 225 0 0,-10 63 245 0 0,13-84-687 0 0,-28 121 0 0 0,29-159-47 0 0,1 0 0 0 0,-1 54 0 0 0,0-2 100 0 0,4-15-43 0 0,2-52-54 0 0,0 0-1 0 0,0 0 1 0 0,-2 0-1 0 0,-6 28 1 0 0,-8 44-2 0 0,12-63 4 0 0,1 0-1 0 0,1 0 1 0 0,2 27-1 0 0,0-44-19 0 0,0-5 4 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,3 4 0 0 0,25 22 34 0 0,-12-11-47 0 0,-7-7 22 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,2-1 0 0 0,-1-1 0 0 0,1 0-1 0 0,18 7 1 0 0,6 0 34 0 0,50 12 0 0 0,-37-16-7 0 0,92 5 0 0 0,-42-6-57 0 0,119 3 6 0 0,-107-7-14 0 0,138 6 8 0 0,1 1 46 0 0,-71 1-175 0 0,94 3-309 0 0,-170-17-762 0 0,-103 2 1217 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-5-9-176 0 0,-9-7-76 0 0,-8 2 135 0 0,0 1-1 0 0,0 1 0 0 0,-1 1 1 0 0,-28-9-1 0 0,11 4 599 0 0,105 32 611 0 0,-37-11-1070 0 0,0 2-1 0 0,0 0 0 0 0,27 12 1 0 0,-52-18 17 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,0 2 1 0 0,-1 1 14 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,-4 2 1 0 0,-14 6-65 0 0,-1-1 0 0 0,0-1 1 0 0,-1-2-1 0 0,-47 8 0 0 0,21-4-2654 0 0,2 2-3633 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -11873,6 +16985,349 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink180.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:37:00.558"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">84 32 312 0 0,'-9'3'4792'0'0,"-4"9"-2703"0"0,12-11-1745 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-2 0-1 0 0,23-22 881 0 0,-6 14-1106 0 0,2 1 0 0 0,-1 1 0 0 0,22-5 0 0 0,-35 10-106 0 0,58-9 323 0 0,-55 8-299 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,10 4 1 0 0,-13-4-4 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 5-1 0 0,1 5 155 0 0,-2 1 1 0 0,-2 22-1 0 0,2-31-152 0 0,-1 7 124 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-8 12 0 0 0,1-5-111 0 0,0 0 0 0 0,-27 29-1 0 0,28-33-53 0 0,0 1 1 0 0,-15 25-1 0 0,4-6 5 0 0,-77 104-53 0 0,93-128 53 0 0,-5 6 49 0 0,11-15-47 0 0,2 1 24 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,3-1 1 0 0,5 2 49 0 0,92 8 363 0 0,-25-4-218 0 0,98 18-31 0 0,-153-17 344 0 0,-17-2-1306 0 0,-11-3-4408 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1065.24">735 190 32 0 0,'0'-1'157'0'0,"-1"0"0"0"0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-2 1 0 0 0,0-1 68 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,-1 3 1 0 0,-1 1 166 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-3 8-1 0 0,4-4-102 0 0,0 1 0 0 0,0 0 1 0 0,2-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,5 13 0 0 0,-1-4 2 0 0,2 0 0 0 0,1 0 0 0 0,0-1 1 0 0,2 0-1 0 0,20 30 0 0 0,-27-44-215 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 1 1 0 0,-1-2-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,13 3 1 0 0,-9-4-31 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0-1 1 0 0,18-4-1 0 0,-14 1-14 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-2 0 0 0 0,13-19 0 0 0,-15 19 73 0 0,0-1 0 0 0,-1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,3-24 0 0 0,-6 31-87 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-8-6 0 0 0,0 0-21 0 0,-2-2 12 0 0,0 0 0 0 0,-1 1 0 0 0,-31-18-1 0 0,41 27-15 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,-6 3-1 0 0,-5 2-630 0 0,0 0 0 0 0,1 2-1 0 0,-1 0 1 0 0,1 1 0 0 0,-19 14-1 0 0,25-15-1033 0 0,1-1 0 0 0,-1 2 0 0 0,2 0-1 0 0,-1 0 1 0 0,-6 10 0 0 0,8-7-586 0 0,1 0 391 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2527.48">1587 109 196 0 0,'-27'5'4221'0'0,"23"-4"-3666"0"0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,-6-1 0 0 0,10 0-443 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-2-1 0 0,2 0 19 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,7-2 0 0 0,5 1 114 0 0,0 0 0 0 0,0 1 0 0 0,28 4 0 0 0,-44-4-213 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 4 1 0 0,-1 5 142 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,-5 14-1 0 0,4-13-154 0 0,-4 11 206 0 0,-19 40 1 0 0,12-36-148 0 0,0 0 1 0 0,-2-1 0 0 0,-23 28 0 0 0,-63 63 75 0 0,96-110-143 0 0,-43 52 102 0 0,49-58-110 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,13 3 52 0 0,30-2 43 0 0,-21-1-63 0 0,256 12 219 0 0,-270-1-1724 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3578.57">2113 149 836 0 0,'-3'3'4308'0'0,"-9"9"-2161"0"0,-8 37 526 0 0,17-37-2431 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,2-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,7 20 1 0 0,-3-18-228 0 0,1 0 1 0 0,0-1 0 0 0,0 0 0 0 0,2 0 0 0 0,-1-1 0 0 0,2 0 0 0 0,-1-1 0 0 0,17 14 0 0 0,-22-22-17 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,8-4 0 0 0,-4 0 8 0 0,0 1-1 0 0,-1-1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,-1-1-1 0 0,0 1 1 0 0,8-13-1 0 0,5-8 315 0 0,18-37 1 0 0,-37 63-294 0 0,3-6 61 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-6-9 0 0 0,5 11 15 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-13 0 1 0 0,7 2-31 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,-16 10 0 0 0,4-1-1292 0 0,1 2 0 0 0,1 0 0 0 0,-27 25 0 0 0,45-37 710 0 0,0-1-480 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-4 9-1 0 0,6-4-939 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6026.45">2944 116 48 0 0,'-9'5'17713'0'0,"9"-7"-17667"0"0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,2-4 1 0 0,-1 4-43 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,3 0-1 0 0,7-6 8 0 0,-6 4 4 0 0,0 1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,13 3 0 0 0,-17-2 22 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 4 1 0 0,2 50 561 0 0,-3-48-529 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-5 8 0 0 0,-8 11 56 0 0,-27 32-1 0 0,6-9-54 0 0,9-6 41 0 0,2 1 0 0 0,-42 94-1 0 0,69-138-98 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,14 4 176 0 0,21-1-31 0 0,-26-3-51 0 0,69 8 470 0 0,197 12 264 0 0,-293-18-13836 0 0,-16 2 5025 0 0,12-4 5349 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8613.51">3527 509 252 0 0,'3'-10'10472'0'0,"-7"8"-8076"0"0,8-1-1817 0 0,12-4-661 0 0,-12 5 83 0 0,-1 1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,3 1 0 0 0,-5-2 19 0 0,-1 0 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 2-1 0 0,-2 0 17 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-2 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,-2 3 1 0 0,-29 31 128 0 0,10-13 44 0 0,17-13 26 0 0,16-10-62 0 0,11-2-155 0 0,-13 2-9 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,13 5 0 0 0,-18-6 31 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 3 1 0 0,0-4 38 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-3 0 0 0 0,-9 3 76 0 0,-1-1-1 0 0,1 0 0 0 0,-20 1 1 0 0,5-1 160 0 0,18-2-278 0 0,-10 2 298 0 0,17-1-568 0 0,12 1-605 0 0,2-1-1860 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1-1 0 0,12-2 1 0 0,-11-1 462 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink181.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:37:10.256"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12 422 304 0 0,'-11'-4'6813'0'0,"28"10"-3695"0"0,90 6-1165 0 0,106 8-1737 0 0,169-10-239 0 0,-368-11 77 0 0,-20-2 65 0 0,-22-3-45 0 0,-27-7-61 0 0,-100-37-1 0 0,94 29-4 0 0,51 17-54 0 0,-11-3 406 0 0,21 7-354 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,14 2 114 0 0,308 69 1683 0 0,-316-69-1697 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,4 5 1 0 0,-9-8-67 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1 0 6 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,-8 5 175 0 0,1-1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,-21 5 1 0 0,-60 9 358 0 0,67-16-454 0 0,0 2-1 0 0,0 1 1 0 0,-25 9-1 0 0,45-10-1323 0 0,12-1-1059 0 0,15-1-3604 0 0,3-8-287 0 0,-8 0 3438 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="462.06">1343 7 208 0 0,'0'0'151'0'0,"0"-1"0"0"0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,0-2 1207 0 0,-1 2-1206 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,12 6 2433 0 0,9 16 239 0 0,104 146 2967 0 0,-116-157-5613 0 0,81 97 579 0 0,45 62-696 0 0,-129-160-336 0 0,0 0 0 0 0,-1 1 0 0 0,6 14 0 0 0,-11-24 103 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-2 1 0 0 0,2-2-144 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-5-2-1923 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="940.33">1852 22 988 0 0,'0'0'386'0'0,"0"-1"1"0"0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-2-2 0 0 0,-1 4 169 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 3 0 0 0,0-1-49 0 0,-8 7 42 0 0,-197 172 2979 0 0,75-57-3001 0 0,91-81-756 0 0,2 2 0 0 0,-61 89 0 0 0,77-103-3261 0 0,14-20-4637 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1866.16">1942 482 44 0 0,'-4'-14'9194'0'0,"0"24"-5784"0"0,-22 66 2247 0 0,-2 10-3559 0 0,24-68-1913 0 0,1 1-1 0 0,1-1 0 0 0,1 1 0 0 0,2 28 1 0 0,-1-16-252 0 0,1-21-673 0 0,9-32-15868 0 0,-7 14 14350 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2360.62">2048 578 1344 0 0,'1'-1'234'0'0,"-1"0"0"0"0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1-95 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-2 1 118 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-2 2 1 0 0,0 5 91 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0-1 0 0,3 12 1 0 0,-2-16-310 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,6 2 1 0 0,-3-2 25 0 0,0 0 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-2-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,7-8-1 0 0,-8 7 119 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1-9 0 0 0,-2 7-78 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-5-14-1 0 0,5 17-84 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,-5-5-1 0 0,8 8-126 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,-4 1 0 0 0,-11 9-3179 0 0,-1 0-1 0 0,2 1 0 0 0,-29 27 0 0 0,15-12 15 0 0,-3 0 445 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink182.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:37:19.581"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">42 79 308 0 0,'-3'7'4485'0'0,"-8"-2"3376"0"0,9-4-7126 0 0,-8-2 6033 0 0,10-5-3329 0 0,0-18-2793 0 0,4 20-612 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,5-1 1 0 0,12-2 85 0 0,29-5 0 0 0,-35 8-42 0 0,-3-1-37 0 0,0 1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1 1 1 0 0,15 6-1 0 0,-24-8-31 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 4 0 0 0,-2 5 46 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-8 20-1 0 0,4-10 4 0 0,1-7 14 0 0,0-1 0 0 0,-2 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-18 23 0 0 0,-87 83 100 0 0,52-59-120 0 0,45-43-39 0 0,-71 70 93 0 0,88-88-102 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,13 0 262 0 0,2-2-283 0 0,3 2 19 0 0,325 14 263 0 0,-338-14-323 0 0,-4 0-86 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 2-1 0 0,17 7-14771 0 0,-5-8 8740 0 0,-5-2 3425 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink183.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:37:30.802"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">31 18 4 0 0,'-30'-10'5277'0'0,"55"3"-1622"0"0,12 6-3013 0 0,0 2-1 0 0,54 8 1 0 0,-45-4-1348 0 0,-20-3-161 0 0,68 11-6786 0 0,-82-11 6194 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="531.5">28 150 408 0 0,'2'2'2834'0'0,"2"1"423"0"0,1-4-2740 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,10 2-1 0 0,8-1-98 0 0,134 3-1221 0 0,2 5-4640 0 0,-116-7 3284 0 0,-2 2 330 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink184.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:37:20.514"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">77 242 764 0 0,'0'0'180'0'0,"0"0"-1"0"0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,-12 14 2823 0 0,-11 25-893 0 0,18-26-1592 0 0,0 1 0 0 0,1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,3 18 0 0 0,-1-17-268 0 0,1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,1-1 1 0 0,1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,9 15-1 0 0,-12-24-178 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,9-1 0 0 0,-5-1-17 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,13-14 1 0 0,-2 0 41 0 0,-1-1 0 0 0,-2 0 0 0 0,24-41 0 0 0,-33 48-59 0 0,0 0 0 0 0,0 0 0 0 0,-2-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-26 0 0 0,-3 18 59 0 0,-1 0 0 0 0,-1 0-1 0 0,-1 0 1 0 0,-5-28 0 0 0,5 44-66 0 0,-1 1 1 0 0,1 0-1 0 0,-2-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,-10-6-1 0 0,5 5-60 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 1 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 2 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-13 5 0 0 0,15-4-562 0 0,0 0 0 0 0,0 1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-11 11 0 0 0,14-12-452 0 0,1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 2 1 0 0,0-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 8 1 0 0,1 9-2216 0 0,6 0 629 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1316.92">960 175 80 0 0,'-6'0'2156'0'0,"-2"0"-189"0"0,0 0 1 0 0,1 0 0 0 0,-15-4 0 0 0,21 4-1787 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-1-1 1 0 0,2 0-26 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,5-2 0 0 0,0 0 168 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 1 0 0 0,9-3 0 0 0,-7 4-171 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-2 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,5 9 1 0 0,-8-12-119 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-2-1-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-4 5 0 0 0,-5 8 68 0 0,-1 0-1 0 0,0-1 0 0 0,-20 19 0 0 0,3-3 54 0 0,-79 82 226 0 0,22-26-125 0 0,74-72-190 0 0,-20 32 0 0 0,-3 3-12 0 0,34-51-51 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,13 6 80 0 0,28-2 23 0 0,-29-4-102 0 0,167 14 306 0 0,-61-8-168 0 0,-90-4-182 0 0,52 3-1253 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1989.03">1697 251 1112 0 0,'-1'-2'307'0'0,"0"1"0"0"0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-2 1 0 0 0,1 0 4 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-4 3-1 0 0,0 3 280 0 0,0 0 0 0 0,1-1 0 0 0,0 2 0 0 0,0-1-1 0 0,1 1 1 0 0,-6 18 0 0 0,6-11 9 0 0,0 0 1 0 0,1 0-1 0 0,1 1 1 0 0,1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,4 27-1 0 0,-2-33-402 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,9 7 0 0 0,-12-12-138 0 0,1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,2-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,6-3 0 0 0,8-3-23 0 0,-1-1-1 0 0,0 0 1 0 0,0-2 0 0 0,-1 0-1 0 0,26-21 1 0 0,-29 18 61 0 0,0 0 0 0 0,-1 0-1 0 0,0-2 1 0 0,-1 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0-1-1 0 0,-1 1 1 0 0,11-31 0 0 0,-18 39-46 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-3-16 0 0 0,1 12-18 0 0,-1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-10-11 1 0 0,9 11-19 0 0,-1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-12 0 1 0 0,16 2-84 0 0,0 1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-11 10 0 0 0,8-5-1178 0 0,0 0 1 0 0,1 0-1 0 0,-13 20 0 0 0,15-19-1705 0 0,0 1 0 0 0,1-1 0 0 0,-6 21 1 0 0,10-27 1526 0 0,0 0 1 0 0,1 0 0 0 0,0 1-1 0 0,0 10 1 0 0,3 3-1042 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3365.68">2454 26 600 0 0,'-46'8'10126'0'0,"46"-8"-10020"0"0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 47 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,2-2 0 0 0,4 0 204 0 0,0 0 0 0 0,1 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,15 3 1 0 0,-7 1 107 0 0,0-1-1 0 0,-1 2 1 0 0,26 10 0 0 0,-37-13-415 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,4 8 0 0 0,-4-7-2 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-3 7 0 0 0,-4 11 107 0 0,-2-1 1 0 0,-1 0-1 0 0,0-1 1 0 0,-29 40-1 0 0,38-58-138 0 0,-30 38 386 0 0,-2-1 1 0 0,-72 66-1 0 0,-27 30-1 0 0,124-125-347 0 0,0-1 0 0 0,2 1 0 0 0,-1 0 0 0 0,-10 24 0 0 0,18-35-46 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,1 0 1 0 0,21 11 178 0 0,1-5-31 0 0,0 0 0 0 0,0-2 0 0 0,1 0 0 0 0,45 2 0 0 0,-35-4-50 0 0,155 13 232 0 0,134 16-156 0 0,-281-25-2564 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14583.98">3177 738 712 0 0,'-22'4'7466'0'0,"22"-6"-7250"0"0,1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,2 1 0 0 0,39-8 588 0 0,-39 8-709 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0 0-1 0 0,5 1 1 0 0,-7-1-56 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 2 0 0 0,0 4 117 0 0,-1 0 0 0 0,1-1 1 0 0,-2 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,-11 7 0 0 0,8-6 304 0 0,8-5-77 0 0,15-4 115 0 0,6-1-458 0 0,-15 5-30 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,5 4-1 0 0,-7-6 17 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-2-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 5-1 0 0,-2-1 142 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-2 1 0 0,-11 10-1 0 0,14-12-66 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-5-1 0 0 0,-5-2 159 0 0,1 1 0 0 0,0-2 0 0 0,-14-6 0 0 0,-5 0 0 0 0,31 10-262 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,12 10-2379 0 0,17 10-9380 0 0,-10-15 3463 0 0,-13-5 6180 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink185.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:37:25.830"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3434 738 164 0 0,'0'0'764'0'0,"-7"-1"1966"0"0,-7-1 2226 0 0,3 14-2868 0 0,9-11-1874 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-2 3 1 0 0,-1 18 689 0 0,4-22-861 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-16 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3-2 0 0 0,-3 1 40 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-5 0 0 0,-2 7-75 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-2 0-1328 0 0,0 0 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-6 4 0 0 0,6-3 216 0 0,-10 4-1152 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="948.28">2767 641 520 0 0,'-8'-2'4641'0'0,"-2"2"-188"0"0,9 0-4366 0 0,1 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 3 1 0 0,-10 79 1975 0 0,9-33-1631 0 0,-4-44-1204 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2107.25">1741 635 420 0 0,'0'1'178'0'0,"0"-1"0"0"0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-100 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,0-1-1 0 0,13 0 82 0 0,0 1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1 0 1 0 0,24 13-1 0 0,-37-17-140 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 2 1 0 0,-1-1 22 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-1 1 1 0 0,-6 3 190 0 0,-1 0 0 0 0,1-1 0 0 0,-12 3 0 0 0,17-6-184 0 0,-84 35 1075 0 0,74-26-822 0 0,13-10-289 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0 0 22 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,5 0 1 0 0,30 7 180 0 0,1-2 1 0 0,0-2-1 0 0,52 0 1 0 0,-84-3 713 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3143.03">980 615 508 0 0,'-11'1'5074'0'0,"35"2"-4116"0"0,8 0-643 0 0,-27-2-253 0 0,0 0-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 1 1 0 0,6 3-1 0 0,-9-5-39 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 2 0 0 0,0-2 4 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,-45 35 468 0 0,47-37-490 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,11 4 146 0 0,24 3 3 0 0,-14-3-92 0 0,-10-1 7 0 0,28 8-69 0 0,-38-11 15 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 2-1 0 0,0-1 43 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,-2-1 0 0 0,-36 10 944 0 0,18-6-628 0 0,1-1-100 0 0,-35 2-1 0 0,48-3-1232 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4146.78">248 504 548 0 0,'-2'-1'321'0'0,"1"1"1"0"0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-2 2 0 0 0,-8 7 211 0 0,2 1-1 0 0,-14 16 1 0 0,13-13-14 0 0,-5 3-197 0 0,8-10-257 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,0 1 0 0 0,1 0 1 0 0,0 0-1 0 0,-8 18 0 0 0,13-26-56 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,42-2-194 0 0,-35 2-58 0 0,5 1-429 0 0,0-2 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 0-1 0 0,13-7 1 0 0,-14-3 1170 0 0,-10 8 310 0 0,-7 6 717 0 0,1 2-1319 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-1 3 1 0 0,-1 5 64 0 0,1 0 0 0 0,-3 18 0 0 0,5-24-220 0 0,0-2 18 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,2 4 1 0 0,0 4-2831 0 0,-1 0-5882 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink186.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:39:47.270"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">108 600 380 0 0,'0'0'582'0'0,"1"0"684"0"0,6-2-889 0 0,7-1 6426 0 0,-22 5-3320 0 0,5-13-1585 0 0,5 7-1809 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,8-1 0 0 0,0 0 23 0 0,1 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 2 0 0 0,1 0 0 0 0,13 3 0 0 0,-24-4-68 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1 2-1 0 0,-1-1 45 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,-1 6 0 0 0,-1 4 156 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-6 15 0 0 0,1-9-2 0 0,-1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1-1-1 0 0,-17 17 1 0 0,-98 90 700 0 0,115-114-944 0 0,-13 10 48 0 0,19-16-28 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-12 13-1 0 0,18-18-10 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,16 9 169 0 0,34 0 86 0 0,-30-6-197 0 0,89 12 564 0 0,-55-8-1442 0 0,1 2-4278 0 0,-54-9 4272 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-2 0 0 0,4-1-2425 0 0,0 0 851 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="342.13">634 710 420 0 0,'-3'-4'1494'0'0,"-1"-3"4065"0"0,5 16-2546 0 0,4 3-2493 0 0,-1-1 0 0 0,2 0 0 0 0,-1 0 1 0 0,2 0-1 0 0,-1-1 0 0 0,1 0 0 0 0,9 10 0 0 0,5 8-236 0 0,-5-5-386 0 0,27 37-692 0 0,-14-22-5353 0 0,-29-38 5917 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,2 0 0 0 0,1-1-1359 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="676.72">842 740 364 0 0,'-2'-1'337'0'0,"1"-1"0"0"0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3 0 0 0 0,2 1-27 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-4 4 0 0 0,0 0 78 0 0,1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-8 15 0 0 0,5 0-69 0 0,-8 33-1 0 0,10-32-1929 0 0,-11 29 0 0 0,15-50 790 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-5 3 0 0 0,1-1-1087 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1066.6">536 929 1172 0 0,'3'-2'503'0'0,"-1"0"-1"0"0,1-1 1 0 0,0 1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,5-1 1 0 0,45-5 931 0 0,-37 5-576 0 0,46-5-4 0 0,49-6-2046 0 0,-39-1-5751 0 0,-58 11 5122 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1574.66">1248 652 228 0 0,'-1'0'240'0'0,"1"0"0"0"0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,12-5 1676 0 0,26-3-909 0 0,-34 9-830 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,5 4 0 0 0,-8-5-103 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,-8 15 574 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2-1 0 0 0,0 0 0 0 0,-24 24 0 0 0,29-28-46 0 0,11-3-172 0 0,24-1-62 0 0,-21-6-374 0 0,9 2 94 0 0,-1 0 1 0 0,-1 2 0 0 0,1 0-1 0 0,25 14 1 0 0,-33-16-37 0 0,-1-1-1 0 0,0 2 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,4 8 1 0 0,-7-10 24 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,-3 4-1 0 0,0 0 62 0 0,-1-1 0 0 0,1 1 0 0 0,-1-2-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,0-1-1 0 0,-9 3 1 0 0,-8-1-32 0 0,-1-1-1 0 0,0 0 1 0 0,0-2 0 0 0,-42-4-1 0 0,68 3-271 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,25-30-10985 0 0,-20 26 9997 0 0,7-9-1429 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2164.61">1782 50 988 0 0,'-3'-46'6095'0'0,"0"43"-4237"0"0,-4 6-974 0 0,-5 10-58 0 0,11-12-613 0 0,-6 7 98 0 0,1 0 0 0 0,-1 1 0 0 0,2 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,-4 19 0 0 0,7-25-296 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,5 5 1 0 0,-5-7-16 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,4-1 0 0 0,5-3 141 0 0,0 0 1 0 0,0-1-1 0 0,19-11 1 0 0,-23 12 156 0 0,-11 7 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-2 5-1 0 0,1 1 2 0 0,-1 1-1 0 0,2 0 1 0 0,-2 19 0 0 0,9 119-2715 0 0,-6-137 240 0 0,1 1-1 0 0,-1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,-3 11-1 0 0,-1-7-194 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink187.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:39:53.257"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">69 279 692 0 0,'0'1'475'0'0,"0"0"1"0"0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-2 2 1573 0 0,-3-33 981 0 0,-4-47-2331 0 0,9 53-601 0 0,-2 0 1 0 0,-1 0 0 0 0,-1 1 0 0 0,-14-42-1 0 0,18 65-87 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0-3 0 0 0,0 5-9 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,43 16-228 0 0,0-1 0 0 0,1-3 1 0 0,1-2-1 0 0,64 7 0 0 0,56-4-626 0 0,260 14-294 0 0,236 14-505 0 0,-190-9 354 0 0,-20-2 159 0 0,333 16 179 0 0,-55-24 774 0 0,78 12 217 0 0,-665-28-68 0 0,177-3-359 0 0,-53-7 469 0 0,-27 1 1 0 0,33-2-82 0 0,-187 0-16 0 0,38-2 26 0 0,59-7 56 0 0,-99-1 418 0 0,-3 1 328 0 0,-73 11-601 0 0,22 1 369 0 0,-30 1-550 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,2 15 320 0 0,-2-14-284 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-2 2 0 0 0,0 6 73 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 13 1 0 0,1-18-54 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-3 5 0 0 0,2-6 612 0 0,1-18 314 0 0,-10-24-707 0 0,8 31-232 0 0,7 9-62 0 0,5 9-36 0 0,-2 2 31 0 0,-6-9 2 0 0,0-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,3 5 1 0 0,-4-6 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,12-4 10 0 0,0-1-1 0 0,-1 0 0 0 0,17-11 1 0 0,-29 17 8 0 0,-5 0-3 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 2 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,-3 2 0 0 0,-26 19-21 0 0,25-17 3 0 0,-1 1-1 0 0,1-2 0 0 0,-20 10 1 0 0,19-9 22 0 0,7-4 31 0 0,5-4 42 0 0,-2 1-91 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-2-1 1 0 0,-20-29 40 0 0,19 28-29 0 0,-2-6 137 0 0,15 15-140 0 0,-7-3-14 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,4 6 0 0 0,-6-8 8 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1-2 0 0 0,6-3 16 0 0,-1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,7-7 0 0 0,-7 7-10 0 0,-7 3-469 0 0,-7 4-204 0 0,-8 4-1120 0 0,-43 21-8891 0 0,42-18 8487 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink188.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:39:56.036"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32 60 1016 0 0,'1'-1'691'0'0,"9"-9"3027"0"0,-10 10-3653 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-3 38 2558 0 0,-5 38 1 0 0,-27 97-1503 0 0,32-167-1110 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 11 0 0 0,3-18-14 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,5 0 0 0 0,120 4-7 0 0,39-1-8 0 0,115 1-29 0 0,-74 2 119 0 0,190 8-95 0 0,-1-1-6 0 0,13-4 95 0 0,-234-4-51 0 0,474 33-77 0 0,-329-16 41 0 0,-98-7 32 0 0,317 15 35 0 0,-336-22-60 0 0,106 1-77 0 0,238 30 207 0 0,-535-37-113 0 0,0 0-1 0 0,0-1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0-1 0 0 0,14-4 1 0 0,-26 6-4 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-2 1 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1-3-1 0 0,-1 1-2 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-6-1 0 0,0 2 15 0 0,0 1-17 0 0,1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,3-8 0 0 0,-2 9 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1-9 0 0 0,-3-14 27 0 0,2 0 0 0 0,1 1 0 0 0,1-1 0 0 0,1 0 0 0 0,15-49 0 0 0,-13 63 35 0 0,-2-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-2-2 0 0 0,0 1 1 0 0,-1-22-1 0 0,-1 36-51 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,-2-3 1 0 0,2 6-2 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-16 19-18 0 0,18-20 13 0 0,-18 21 0 0 0,11-12 0 0 0,-2 1 1 0 0,1-1-1 0 0,-1-1 0 0 0,-1 0 1 0 0,-17 14-1 0 0,27-23-3 0 0,17-17-32 0 0,-7 7 26 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,10-18 0 0 0,20-27-18 0 0,-38 56 27 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 7 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 2-1 0 0,-1-3-4 0 0,24 42 209 0 0,-2-5-916 0 0,-11-11-3948 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink189.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:40:06.725"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">89 263 636 0 0,'0'0'141'0'0,"0"0"0"0"0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 282 0 0,1 1-282 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-6 8 3315 0 0,-4 17-640 0 0,-14 106 1143 0 0,-7 38-3154 0 0,22-41-739 0 0,3 17-72 0 0,6-145 7 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,2-1 0 0 0,34-1 50 0 0,-28 1-52 0 0,310-11 85 0 0,-141 9-131 0 0,482-20 111 0 0,-574 21-55 0 0,422-3-108 0 0,-12 39 194 0 0,-433-28-110 0 0,78 1 0 0 0,-136-8 16 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,3-4 0 0 0,8-9 4 0 0,23-36 0 0 0,-32 45 1 0 0,2-4-11 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,3-24 1 0 0,7-81-32 0 0,-5 32-34 0 0,0-28-21 0 0,-8 72 61 0 0,11-56 1 0 0,-9 82-20 0 0,-1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,-3-17 0 0 0,3 32 48 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,0 0 2 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,-2 3-1 0 0,-4 3-8 0 0,0 0 1 0 0,0 1-1 0 0,-7 10 0 0 0,-85 95-94 0 0,100-112 76 0 0,4-3 6 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,4-4 0 0 0,-6 4 12 0 0,20-17-24 0 0,31-36 0 0 0,-40 40 27 0 0,1 0-1 0 0,1 1 1 0 0,0 1-1 0 0,1 1 1 0 0,19-13-1 0 0,-34 25 11 0 0,1 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1 2-1 0 0,4 7 46 0 0,0 0 1 0 0,-1 1-1 0 0,-1 0 0 0 0,5 16 0 0 0,-6-17-39 0 0,6 17-587 0 0,2-1 0 0 0,19 36 0 0 0,-17-39-3038 0 0,2 0 0 0 0,28 34 0 0 0,-26-39 922 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -11902,6 +17357,331 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">129 66 952 0 0,'-13'-4'1417'0'0,"0"0"0"0"0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,-18 0 0 0 0,3 3 1933 0 0,30 1-1766 0 0,16 2-603 0 0,22-1 85 0 0,1-1 0 0 0,63-5 0 0 0,-38 0-593 0 0,772-44 400 0 0,-735 41-870 0 0,161 12 0 0 0,-225 0-244 0 0,-35-6-158 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,4 2 0 0 0,-6-3 85 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-2 0 0 0 0,-15 16-4354 0 0,13-14 4150 0 0,-7 9-1301 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink190.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:40:07.578"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">10 179 596 0 0,'-4'-9'1590'0'0,"-1"-6"1811"0"0,5 14-3286 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,22-4 709 0 0,1 0 0 0 0,-1 1 0 0 0,0 2 0 0 0,39 0 0 0 0,-15 0-746 0 0,-5 1-429 0 0,15-2-1683 0 0,-21-2-2405 0 0,-26 2 2250 0 0,-6-1 184 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="347.74">242 13 524 0 0,'-7'-7'2318'0'0,"1"2"395"0"0,-1 13-1133 0 0,2 0-1235 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 16 0 0 0,2 4-1670 0 0,1 1-1 0 0,7 32 1 0 0,1-1-3910 0 0,-8-36 3549 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink191.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:40:09.654"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">126 738 180 0 0,'-13'-3'2034'0'0,"7"3"-1323"0"0,1-1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-7-3 0 0 0,12 4-641 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,17-10 248 0 0,-18 10-217 0 0,8-3 15 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,10 4 0 0 0,-8-2-68 0 0,-1-1 1 0 0,0 1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,6 8 1 0 0,-10-11 14 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1 0 1 0 0,-2-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-4 5 0 0 0,-6 8 292 0 0,-2-1 0 0 0,1 0 0 0 0,-32 25 0 0 0,27-24-135 0 0,-47 42 610 0 0,-69 64 1317 0 0,117-99-1045 0 0,16-23-1088 0 0,27-3 49 0 0,66-1 35 0 0,167 13-1 0 0,-148 3-94 0 0,-101-9-330 0 0,-13 1-506 0 0,-18 4-1486 0 0,10-4 748 0 0,11-4 1205 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,21 2-3675 0 0,-19-1 3224 0 0,9 0-1070 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="681.83">954 834 864 0 0,'-1'-2'325'0'0,"0"1"0"0"0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-2 0 0 0 0,2 1-223 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,-1 0 49 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 1 0 0 0,9 15 374 0 0,0 0 1 0 0,0 0-1 0 0,2-1 0 0 0,0 0 0 0 0,20 20 0 0 0,-13-17-1139 0 0,1-1 0 0 0,1-1 0 0 0,35 23 0 0 0,-50-36 69 0 0,23 12-2337 0 0,-28-17 2631 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-2-1 0 0,4-4-1252 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1019.8">1212 899 236 0 0,'0'-2'171'0'0,"0"1"0"0"0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-2 0 1 0 0,1 0-5 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-2 1 1 0 0,-4 4 210 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-7 15-1 0 0,2 4 211 0 0,-14 51-1 0 0,17-51-2204 0 0,-1 0 0 0 0,-13 29 0 0 0,20-54 1044 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-3 2-1 0 0,-6 1-1251 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1357.75">843 1120 1316 0 0,'0'-1'209'0'0,"1"0"0"0"0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,2-1-1 0 0,29-8 817 0 0,-25 7-365 0 0,38-7 708 0 0,57-6 0 0 0,49 4-4549 0 0,-52 5-2136 0 0,-65 2 3620 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1963.01">1612 784 880 0 0,'-10'-9'2542'0'0,"0"-3"1883"0"0,10 11-4329 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,12-2 64 0 0,0-1-1 0 0,1 2 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,14 6-1 0 0,-27-8-132 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-1 0 25 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-3 4 1 0 0,-2 2 93 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-9 5 0 0 0,7-6-24 0 0,0 1 25 0 0,0-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-14 15 0 0 0,22-21-135 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 1 5 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,3 1 1 0 0,4 3 20 0 0,1 0-1 0 0,17 6 1 0 0,-20-9-27 0 0,44 16 30 0 0,-25-10-61 0 0,34 16 0 0 0,-52-20 88 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,4 8 0 0 0,-6-7 159 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 9 0 0 0,-1-12-53 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,-4 3 0 0 0,-9 5-71 0 0,0-1 1 0 0,-1-1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-2-1 0 0,0 0 1 0 0,0-1 0 0 0,-1-1-1 0 0,-35 2 1 0 0,54-5-332 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,-1 0-1 0 0,-1-5-4522 0 0,4 6 4474 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,8-16-8749 0 0,1 7 6632 0 0,1-1-34 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2903.17">2212 2 424 0 0,'-5'-1'355'0'0,"0"1"-1"0"0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-6 3 1 0 0,-29 3 3634 0 0,89-6 553 0 0,-33 0-4410 0 0,-1 0 0 0 0,1 1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 1 0 0 0,28 12 0 0 0,-38-14-96 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,4 7 0 0 0,-6-9 24 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,-2 1-1 0 0,-22 22 716 0 0,0-2-1 0 0,-46 29 0 0 0,-9 8-79 0 0,69-51-525 0 0,-20 17 339 0 0,30-24-420 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-2 3 0 0 0,3-5-43 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-1 0 0 0,36 11 95 0 0,-37-10-134 0 0,115 25-4296 0 0,-83-17-2451 0 0,46 19 1 0 0,-57-18 3969 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3304.14">2605 985 644 0 0,'152'2'9961'0'0,"73"9"-10046"0"0,-206-10-1952 0 0,-1-1-1 0 0,1-1 1 0 0,22-4-1 0 0,-32 4 376 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3644.87">2868 793 532 0 0,'-3'61'7292'0'0,"2"-40"-6450"0"0,0 0-1 0 0,3 43 1 0 0,3-28-1400 0 0,-1 45 0 0 0,-7-3-6761 0 0,0-61 5609 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink192.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:40:16.396"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">23 527 284 0 0,'-11'-7'6607'0'0,"10"7"-6413"0"0,-2-8 5995 0 0,3-12-3510 0 0,4 14-2656 0 0,-1 0 0 0 0,1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,8-3-1 0 0,-11 4-3 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,5 1 1 0 0,13 4 77 0 0,-18-5-67 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4 2 0 0 0,-1 1-10 0 0,0-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,8 11 1 0 0,-11-14 55 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-2 4 0 0 0,-10 15 271 0 0,-2-1-1 0 0,0 0 0 0 0,-1-1 0 0 0,-2 0 0 0 0,-28 23 0 0 0,27-26-189 0 0,1 1 0 0 0,1 1 0 0 0,0 0 0 0 0,2 2 0 0 0,-21 31 0 0 0,36-50-90 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,2-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,2 2 1 0 0,-1-2 11 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,3 1 0 0 0,12 5-96 0 0,1 0 0 0 0,0-1 1 0 0,0-2-1 0 0,0 0 0 0 0,1 0 1 0 0,23 0-1 0 0,-27-4-1618 0 0,1 0 0 0 0,17-3 0 0 0,-28 2 307 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,5-6 0 0 0,5-3-706 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="337.45">563 559 132 0 0,'0'0'70'0'0,"0"0"0"0"0,0 0 0 0 0,1-2 1610 0 0,-1 2-1610 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,7 5 1387 0 0,6 8 53 0 0,74 83 1251 0 0,-22-40-10167 0 0,-60-52 5876 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="680.31">766 633 192 0 0,'-2'-2'269'0'0,"1"0"0"0"0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-3-1-1 0 0,1 2 51 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-5 4-1 0 0,-3 4 303 0 0,1 1 1 0 0,-1 1-1 0 0,2-1 1 0 0,-15 24-1 0 0,13-16-587 0 0,0 1-1 0 0,-7 23 0 0 0,-4 6-2597 0 0,-4-4-5623 0 0,20-38 6490 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="681.31">480 756 272 0 0,'-1'-2'446'0'0,"0"-1"0"0"0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-4 0 0 0,0 6-263 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,3 1 0 0 0,16-5 181 0 0,0 0 1 0 0,0 2-1 0 0,41-2 0 0 0,63 9-3352 0 0,-70-2-841 0 0,-30 0 1905 0 0,-2-1 220 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1410.41">1220 532 164 0 0,'17'-14'4039'0'0,"-5"11"-3310"0"0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,24 2 0 0 0,-27 0-471 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 1 1 0 0,11 5-1 0 0,-19-8-214 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 2-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 3 0 0 0,-2-2 24 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 3 0 0 0,-5 6 226 0 0,0-1 0 0 0,0 0 0 0 0,-19 15 1 0 0,22-20-170 0 0,-8 6 137 0 0,7-6-128 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 1 0 0,-7 8-1 0 0,12-14-121 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,25 16 18 0 0,0-1 0 0 0,56 25 0 0 0,-59-32 124 0 0,-1 1 0 0 0,-1 1 1 0 0,0 1-1 0 0,-1 2 1 0 0,37 30-1 0 0,-55-42-2 0 0,-1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-2 1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-6 2 0 0 0,-3 3 70 0 0,-1-2 0 0 0,1 0-1 0 0,-1 0 1 0 0,-1-1 0 0 0,1-1-1 0 0,0 0 1 0 0,-25 3 0 0 0,-32 0-1034 0 0,3-10-4282 0 0,66 3 4796 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,4-8-2287 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1937.21">1800 27 584 0 0,'4'-5'1557'0'0,"3"-9"1366"0"0,-2 7 2388 0 0,-19 49-3135 0 0,12-29-2144 0 0,-1-1 0 0 0,2 0 1 0 0,-1 20-1 0 0,4 22-3202 0 0,12 68 0 0 0,-7-70-378 0 0,-1-18 1676 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2302.96">2223 753 152 0 0,'12'-7'1152'0'0,"-1"3"64"0"0,1 1-244 0 0,2 1-452 0 0,3 0-340 0 0,0 2-216 0 0,0 0-204 0 0,1 0-268 0 0,-1 2-392 0 0,0 2-148 0 0,-3-3 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2677.29">2212 907 408 0 0,'6'-2'4196'0'0,"97"5"-1530"0"0,-1 8-7956 0 0,-84-6 3802 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink193.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:40:50.349"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">38 7 1040 0 0,'26'0'7177'0'0,"6"-3"-4670"0"0,47 0-1920 0 0,-44 2-720 0 0,65 3-1714 0 0,-36 7-4621 0 0,-55-7 4745 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="340.94">4 217 696 0 0,'-3'2'3016'0'0,"3"-2"-2909"0"0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 969 0 0,1-1-970 0 0,7 3 2238 0 0,16-1-1184 0 0,-22-1-807 0 0,225 3-1888 0 0,-160-5-1651 0 0,-28 1 1153 0 0,-4 0 130 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink194.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:41:43.151"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">81 107 368 0 0,'-5'2'3681'0'0,"-7"4"-2626"0"0,4 3-688 0 0,1 0-1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1 13 0 0 0,2-17-308 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,5 11-1 0 0,-5-13-26 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,5 1 1 0 0,-2-2 28 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-2 0 0 0 0,1 0 0 0 0,0-1 0 0 0,10-5 0 0 0,-5 1 30 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,14-20 0 0 0,-16 20-71 0 0,-2-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1-1 0 0 0,0 1 0 0 0,3-21 0 0 0,-6 28-11 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,-6-4 1 0 0,5 4-90 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-10 5 0 0 0,3-1-908 0 0,0 1 1 0 0,0 1 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,2 1 0 0 0,-1 0 0 0 0,-15 21 0 0 0,-2 8-1352 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink195.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:41:34.539"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">170 386 432 0 0,'-37'1'1236'0'0,"-45"8"1"0"0,53-4 140 0 0,24-5-1045 0 0,-12 2 5066 0 0,23-11 1784 0 0,5-3-7702 0 0,44-49 1492 0 0,-34 39-887 0 0,-1 0 1 0 0,-1-2-1 0 0,23-35 1 0 0,-26 32 92 0 0,-8 15 83 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,-1 0 0 0 0,8-24 0 0 0,-13 35-200 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-2-1 0 0,0 4-41 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-24 37 80 0 0,10-9 66 0 0,1 1 0 0 0,1 1 0 0 0,-12 52 0 0 0,-10 98 629 0 0,28-146-762 0 0,1 8-4125 0 0,1 71 0 0 0,27-130-7649 0 0,-11 3 9457 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="576.79">613 65 1212 0 0,'-8'5'5396'0'0,"8"-4"-5302"0"0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,2-1 0 0 0,23-5 1156 0 0,-15 3-621 0 0,15-7 594 0 0,-24 10-1092 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 2-74 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-22 5 192 0 0,22-5-170 0 0,-13 5 35 0 0,-1 0 1 0 0,1 0-1 0 0,1 2 1 0 0,-1-1-1 0 0,1 2 1 0 0,0 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0 1-1 0 0,-12 13 1 0 0,6-4 4 0 0,0 1-1 0 0,1 1 1 0 0,2 0 0 0 0,-26 46 0 0 0,34-54-107 0 0,1 1 1 0 0,1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,1 1 0 0 0,-1 28-1 0 0,3-32-6 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,9 12 0 0 0,-12-19 4 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,3 1 1 0 0,-1-1-3 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 1 0 0,9-2-1 0 0,-7 1 65 0 0,-1 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,10-11-1 0 0,-14 16 15 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-2-3-1 0 0,0 3-12 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-3-2-1 0 0,-7-2-126 0 0,1 0 1 0 0,-1 1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-16-1 1 0 0,20 2-337 0 0,-20 0-1748 0 0,28 1 1704 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-2 1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1032.3">970 89 188 0 0,'3'-20'6612'0'0,"-2"19"-6489"0"0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,3 0-1 0 0,2-1 216 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,11 1 1 0 0,6 1 383 0 0,28 5 1 0 0,-35-3-237 0 0,-8-2-239 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 1 0 0 0,1-1 1 0 0,8 5-1 0 0,-14-6-189 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 2 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 3 1 0 0,-7 8 251 0 0,0 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,-12 9 1 0 0,-4 4 115 0 0,14-11-277 0 0,-23 19 328 0 0,2 1 0 0 0,1 1 0 0 0,1 2 1 0 0,-34 48-1 0 0,64-79-460 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,2 7 0 0 0,0-7-19 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,7 1 0 0 0,0-1-459 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0-1 0 0 0,-1 1 1 0 0,14-2-1 0 0,-9-1-1536 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1-1 0 0 0,21-12 0 0 0,-13 3-452 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1374.09">1362 379 44 0 0,'-4'-3'3898'0'0,"4"3"-3713"0"0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,9-3 2320 0 0,14 1-1591 0 0,-22 3-584 0 0,97-1 2295 0 0,-65 2-3690 0 0,61-6 0 0 0,-90 4 635 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,4-2-1 0 0,-8 4 226 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-2-1 1 0 0,1 0-1 0 0,-2-6-1329 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1709.74">1565 233 580 0 0,'-2'-2'438'0'0,"0"0"147"0"0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-4-2 0 0 0,5 3-447 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 2 0 0 0,-6 27 1070 0 0,1 0 0 0 0,2 0 1 0 0,0 1-1 0 0,3 36 0 0 0,1 23-887 0 0,4-30-3205 0 0,-4-55 2590 0 0,-2-3 32 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,2 0 0 0 0,3-1-1711 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2080.77">1939 94 1356 0 0,'2'4'6141'0'0,"7"18"-3941"0"0,3 126 4840 0 0,-17 74-3979 0 0,5-146-2972 0 0,2-27-3827 0 0,24-81-10516 0 0,-18 16 12423 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2422.82">2207 65 784 0 0,'1'-2'271'0'0,"-1"1"0"0"0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,3 0 0 0 0,23-1 1145 0 0,-6 6-423 0 0,12 9 839 0 0,-28-11-1609 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,6 7 0 0 0,-8-7-98 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 6 0 0 0,-6 10 202 0 0,1-1-1 0 0,-2 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,-15 22-1 0 0,8-14-176 0 0,-17 38 0 0 0,33-63-149 0 0,-8 17 19 0 0,2-1-1 0 0,-8 29 1 0 0,13-40-17 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,3 6 1 0 0,-4-9-2 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,2-1-2 0 0,-1 0 2 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,3-6-1 0 0,-4 2-32 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,-4-11 1 0 0,-5-9-119 0 0,-22-42 1 0 0,27 59 132 0 0,-6-11-29 0 0,-16-34 39 0 0,26 52-24 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,1-8 1 0 0,0 11-148 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,2-1 0 0 0,4-1-1695 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,13 2 1 0 0,-5 0-361 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2763.82">2647 242 136 0 0,'34'16'5444'0'0,"20"1"-2641"0"0,-33-11-1895 0 0,-21-6-895 0 0,21 7-281 0 0,36 5 0 0 0,-49-11-997 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,12-2 0 0 0,-8 0-286 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2764.82">2833 99 660 0 0,'-2'-1'333'0'0,"0"0"0"0"0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,-3 2 0 0 0,4 0-99 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-2 4 1 0 0,-4 14 581 0 0,2 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 43 1 0 0,2-18-510 0 0,-8 68-581 0 0,9-39-4923 0 0,7-50-1810 0 0,-2-21 5134 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12658.79">3259 105 296 0 0,'-6'-1'701'0'0,"0"0"-1"0"0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,-9 1 1 0 0,-7 0 2096 0 0,22-3-2516 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,2-3-1 0 0,3-5 190 0 0,0 1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,16-12 0 0 0,-19 16-388 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,6 0 0 0 0,-8 1-57 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 4-1 0 0,0-2 57 0 0,0 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 4 0 0 0,-2 8 453 0 0,-1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,-7 18-1 0 0,-3 1-43 0 0,-1-1 1 0 0,-2-1-1 0 0,-1 0 0 0 0,-35 47 0 0 0,19-35 60 0 0,-2-2 1 0 0,-57 52-1 0 0,76-79-411 0 0,-35 36 313 0 0,52-52-430 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,16 1 505 0 0,-1-1-597 0 0,297 26-8 0 0,-303-26 1531 0 0,2 2-8549 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink196.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:42:01.595"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">23 356 524 0 0,'-6'4'1256'0'0,"5"-4"-1174"0"0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 2-1 0 0,4-4 260 0 0,-1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0 0 0 0,3-4 0 0 0,4-4 1012 0 0,-1 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,11-16 0 0 0,7-7 26 0 0,11-14-572 0 0,34-53-1 0 0,-55 73 763 0 0,24-54-1 0 0,-40 81-1249 0 0,-2 5-96 0 0,-3 15 19 0 0,-9 48 129 0 0,3 315 1520 0 0,11-248-2523 0 0,0-96-1296 0 0,5-14-2868 0 0,-6-24 4652 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,10-7-5708 0 0,-9 6 5202 0 0,6-4-1796 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="524.02">571 86 648 0 0,'2'-5'451'0'0,"-1"0"1"0"0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,6-4 0 0 0,-5 4-251 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 1 0 0 0,9 1 1 0 0,1 0 271 0 0,0 2 1 0 0,0 0 0 0 0,0 0 0 0 0,25 12 0 0 0,-33-12-353 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 1 1 0 0,0-1-1 0 0,7 9 1 0 0,-11-12-46 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-2 4-1 0 0,0-1 63 0 0,0 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-4 8 1 0 0,-6 6 234 0 0,0-1 0 0 0,-2 0 0 0 0,-23 23 1 0 0,30-34-313 0 0,-35 38 300 0 0,-54 60 245 0 0,84-90-541 0 0,0 1 0 0 0,2 0 0 0 0,0 1 0 0 0,-15 33 0 0 0,23-44-49 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,2 9 1 0 0,-2-12-10 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,8 2-1 0 0,-10-3-6 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1-3 1 0 0,1-5-45 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,-2-19-1 0 0,0 10-19 0 0,-2 1-1 0 0,0 0 1 0 0,-2 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-2 0 1 0 0,-17-34 0 0 0,-8-3 51 0 0,-41-56 0 0 0,-5-6 107 0 0,73 108-63 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-3-9 1 0 0,6 16-27 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,2-2 0 0 0,5-1-177 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 0 0 0 0,18-1 0 0 0,86 2-6445 0 0,-85 2 3460 0 0,39 2-2515 0 0,-35 1 3529 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="926.53">1157 41 1052 0 0,'1'-2'247'0'0,"0"0"0"0"0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,3-1 1 0 0,45-5 336 0 0,-36 5 98 0 0,3 0-40 0 0,0 1 0 0 0,0 0 0 0 0,0 2 0 0 0,33 5 0 0 0,-43-5-456 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,4 6 0 0 0,-8-8-96 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-3 3-1 0 0,-5 7 280 0 0,0 0-1 0 0,-2-1 0 0 0,-18 17 1 0 0,25-24-306 0 0,-83 65 973 0 0,4-3-367 0 0,59-45-504 0 0,-5 4 254 0 0,-41 45 0 0 0,63-62-298 0 0,0 0 1 0 0,1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-2 11 0 0 0,5-16-78 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-2 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,5 4-1 0 0,8 4 7 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,20 6 0 0 0,19 5-379 0 0,111 24 1 0 0,64-4-6434 0 0,-180-32 3395 0 0,40 4-3681 0 0,-54-9 4049 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink197.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:42:06.308"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 331 340 0 0,'0'-11'11683'0'0,"11"8"-10940"0"0,30 0 144 0 0,-1 1-1 0 0,82 8 1 0 0,-85-3-1478 0 0,7-1-828 0 0,94 10-9973 0 0,-120-9 9504 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="351.75">107 489 1240 0 0,'-8'4'894'0'0,"-16"9"3776"0"0,24-13-4620 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,16 6 623 0 0,22-1 370 0 0,64 1 1 0 0,-57-4-1485 0 0,145-1-8394 0 0,-152-4 6960 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="753.92">898 368 1484 0 0,'-4'6'5653'0'0,"8"-7"-2877"0"0,6-1-2593 0 0,15-7 906 0 0,0 0 0 0 0,-1-2 0 0 0,0 0 0 0 0,-1-2 0 0 0,26-18 0 0 0,-33 21-872 0 0,-2-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-1-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2-1 0 0 0,1 0 1 0 0,10-34-1 0 0,-13 25 553 0 0,-6 24-718 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-2 1 0 0,0 3-29 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,-9 15 354 0 0,1 2 46 0 0,2 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-3 20 0 0 0,-10 79 671 0 0,19-116-1090 0 0,-12 288 578 0 0,12-263-598 0 0,0-4-235 0 0,0 5 55 0 0,3 34 0 0 0,-2-54-874 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,6 14 0 0 0,-8-21 709 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,2-2-1 0 0,6-6-2203 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1250.28">1478 65 764 0 0,'4'-6'976'0'0,"1"0"0"0"0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,10-9 0 0 0,-11 11-782 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,7-1 0 0 0,-2 1 87 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0 0-1 0 0,15 9 1 0 0,-21-10-135 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 2 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,-1 6 0 0 0,0 1 148 0 0,-1 1 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-2 0 0 0 0,1 0-1 0 0,-2 0 1 0 0,1-1-1 0 0,-2 0 1 0 0,-9 14 0 0 0,-13 14 418 0 0,-47 48 0 0 0,27-33-94 0 0,30-30-384 0 0,0 0 0 0 0,1 1 0 0 0,-26 50 0 0 0,39-65-215 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,5 22-1 0 0,-4-28-21 0 0,1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,10 1 0 0 0,-8-1-3 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-2-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-2 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,8-8 0 0 0,-9 8-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-2 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-13 1 0 0,-1 8-9 0 0,-2 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,-4-14 0 0 0,-7-10-51 0 0,-1 0-1 0 0,-2 2 0 0 0,-25-42 1 0 0,37 68 50 0 0,-31-52-41 0 0,-20-35 30 0 0,47 78 18 0 0,1 0 0 0 0,0 0 0 0 0,2 0 0 0 0,-5-19 0 0 0,9 32 2 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,3-2 0 0 0,-2 1-52 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,5-2 0 0 0,12-3-1942 0 0,0 1-1 0 0,1 1 1 0 0,0 1 0 0 0,32-1-1 0 0,11-1-4311 0 0,-31 0 3385 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1687.15">2184 28 1380 0 0,'42'1'5998'0'0,"34"5"-3791"0"0,-60-4-2015 0 0,0 0 1 0 0,0 2 0 0 0,0 0-1 0 0,0 0 1 0 0,28 14-1 0 0,-43-18-163 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 2-1 0 0,0-2 20 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-2 2 1 0 0,-4 4 209 0 0,-1 0-1 0 0,-1-1 1 0 0,-16 11 0 0 0,23-16-233 0 0,-25 15 342 0 0,0-1 61 0 0,-30 23 1 0 0,50-33-372 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-7 14 0 0 0,10-17-50 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,3 3-1 0 0,7 5-7 0 0,0 0 0 0 0,0 0 0 0 0,28 15 0 0 0,-35-22 2 0 0,57 32 19 0 0,50 32 206 0 0,-98-57 346 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 1 0 0,-1 0-1 0 0,14 18 1 0 0,-23-27-413 0 0,-1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,-2 3-1 0 0,-5 4-97 0 0,-1-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-17 5-1 0 0,-69 22-4315 0 0,20-13-4158 0 0,-83 12 0 0 0,79-21 5114 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink198.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-10-26T17:42:03.538"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#008C3A"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 610 1136 0 0,'2'-4'854'0'0,"0"0"1"0"0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,4-4 1 0 0,5-4 62 0 0,26-16 0 0 0,-11 8 536 0 0,3-6-587 0 0,-1 0-1 0 0,-1-2 0 0 0,47-58 1 0 0,-60 64-339 0 0,0 0 1 0 0,-1-2 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,13-42-1 0 0,-22 51 312 0 0,-10 20-256 0 0,-9 22 118 0 0,8 0-109 0 0,1 0 0 0 0,1 0 1 0 0,2 0-1 0 0,-4 46 0 0 0,4 114 785 0 0,5-144-1283 0 0,1 6-266 0 0,1-1 0 0 0,3 1-1 0 0,18 81 1 0 0,-17-111-73 0 0,2-4-3875 0 0,-8-15 3887 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1-286 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,5-9-2532 0 0,1-1 453 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="511.47">600 188 596 0 0,'2'-9'1157'0'0,"1"-1"-1"0"0,0 1 1 0 0,0 0 0 0 0,1 0-1 0 0,6-11 1 0 0,-8 17-1009 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 2-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,6-1 1 0 0,-2 1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 8 0 0 0,-2 6 221 0 0,-1 0-1 0 0,0 0 1 0 0,-2 0 0 0 0,-7 27-1 0 0,-33 77 393 0 0,30-91-687 0 0,1 0 0 0 0,3 1 0 0 0,0 1-1 0 0,-5 41 1 0 0,14-68-67 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,2 0 1 0 0,5 14-1 0 0,-7-20-7 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,5-3 0 0 0,-3 2-3 0 0,1-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,5-7 0 0 0,-6 8 2 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-2-5-1 0 0,-12-25 15 0 0,-2 0-1 0 0,-2 2 1 0 0,-27-40-1 0 0,6 12 11 0 0,18 25-16 0 0,5 11-10 0 0,2 0-1 0 0,0-1 0 0 0,2-1 1 0 0,-18-51-1 0 0,30 76 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,2-2 0 0 0,-1 2-5 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,4 0 0 0 0,7-1-1023 0 0,0 0 0 0 0,0 2 0 0 0,0-1 0 0 0,20 2 0 0 0,40 0-8605 0 0,-49 0 6801 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="899.73">1323 92 956 0 0,'18'-11'2751'0'0,"-9"5"-1474"0"0,0 0 0 0 0,1 1 0 0 0,11-5 0 0 0,-18 9-1030 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,5 0-1 0 0,-3 1-60 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,4 9 0 0 0,-4-7-25 0 0,-2 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 10 0 0 0,-1 0 148 0 0,0 1 1 0 0,-2-1-1 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,-11 17-1 0 0,-60 91 1279 0 0,48-82-993 0 0,-23 47 1 0 0,38-61-396 0 0,2-7 76 0 0,-15 40 1 0 0,25-56-185 0 0,0-1-1 0 0,0 2 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,2 13 1 0 0,-2-16-67 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,5 0 1 0 0,6 1-449 0 0,-1-1 1 0 0,1 0-1 0 0,0-2 0 0 0,29-3 1 0 0,4-6-3172 0 0,-34 6 1246 0 0,0-1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1-1 0 0 0,22-14 0 0 0,-9 2-756 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1237.04">1905 495 1308 0 0,'11'-4'1900'0'0,"-1"1"1"0"0,0 0-1 0 0,18-2 0 0 0,34 2 2282 0 0,64 15-1051 0 0,-78-6-2158 0 0,71 6-1334 0 0,-39-7-3463 0 0,-48-7-495 0 0,-31 2 3909 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,2-2 1 0 0,1-3-1599 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1584.26">2231 251 56 0 0,'-8'-9'9918'0'0,"5"23"-8810"0"0,-13 62 4612 0 0,1 43-2429 0 0,6-41-2239 0 0,-2 36-664 0 0,12-55-2559 0 0,1-47-241 0 0,-1 0-1 0 0,6 18 1 0 0,-6-28 1705 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,3 2 0 0 0,4 2-2353 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1916.63">2646 409 1272 0 0,'16'-6'7504'0'0,"9"-7"-5672"0"0,-6 3-1287 0 0,5-3 228 0 0,-1 0 0 0 0,0-2 0 0 0,-1 0 1 0 0,-1-1-1 0 0,-1-2 0 0 0,22-22 0 0 0,-28 25-336 0 0,-1 0 1 0 0,-1-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,-2 0 0 0 0,13-37 1 0 0,-18 45 293 0 0,-1 0 0 0 0,0 0 1 0 0,0-19-1 0 0,-2 29-719 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-9 7 336 0 0,-6 9 56 0 0,4 7-90 0 0,1 0 0 0 0,1 1 1 0 0,2 1-1 0 0,0-1 0 0 0,2 1 1 0 0,-4 30-1 0 0,5 4 53 0 0,3 92 1 0 0,4-107-495 0 0,2 0-1 0 0,1 0 1 0 0,16 55 0 0 0,2 2-5363 0 0,-24-100 5224 0 0,3 21-4059 0 0,-4-11-514 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2257.83">2700 831 476 0 0,'-1'0'269'0'0,"-3"0"456"0"0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-5 1 0 0 0,9-3-670 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,8 4 1975 0 0,11 1-152 0 0,151 8 2655 0 0,89-18-3563 0 0,-209 4-1145 0 0,-30 0-510 0 0,19 0-1525 0 0,-13-2-3811 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -12001,7 +17781,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">520 55 812 0 0,'-6'-33'4823'0'0,"6"32"-4656"0"0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-2 0 0 0 0,-13 17 2620 0 0,7-3-2224 0 0,1 1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-8 30 1 0 0,5-18-128 0 0,-52 181 1568 0 0,2-6-2209 0 0,53-181-241 0 0,-9 21-2717 0 0,19-67-2811 0 0,0-10 4032 0 0,20-94-2590 0 0,-18 91 3352 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="356.97">340 223 1000 0 0,'14'-74'2821'0'0,"-12"59"-2067"0"0,0 1 1 0 0,1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,12-23-1 0 0,-17 37-661 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 1 49 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 2 0 0 0,15 40 2020 0 0,-15-38-1904 0 0,10 37 1081 0 0,-2-1 1 0 0,3 56-1 0 0,-3-25-748 0 0,21 92-385 0 0,-29-160-250 0 0,4 23-617 0 0,1 35 1 0 0,-6-54-418 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,-4 16 0 0 0,5-22 690 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,-2 0 0 0 0,-10 2-1248 0 0,-1 1-124 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="697.97">30 715 1240 0 0,'-26'4'6006'0'0,"26"-4"-5961"0"0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,12 2 1559 0 0,16 1-855 0 0,0-2 1 0 0,49-4-1 0 0,61-12-490 0 0,-73 6-109 0 0,37-4-79 0 0,127-32 0 0 0,-212 41-37 0 0,-14 3 50 0 0,-1-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,4-3 0 0 0,-39 43 1910 0 0,18-23-1934 0 0,1 0 1 0 0,0 0 0 0 0,1 2 0 0 0,0-1 0 0 0,2 1 0 0 0,0 1-1 0 0,-8 25 1 0 0,17-42-334 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-2 4 0 0 0,2-5 55 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-2-1 0 0,-15-12-4562 0 0,6 8 2863 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1135.65">16 703 952 0 0,'0'0'4202'0'0,"14"15"400"0"0,-7 3-3452 0 0,0 0 1 0 0,1-1 0 0 0,0 0 0 0 0,2-1-1 0 0,16 23 1 0 0,-25-37-1123 0 0,13 17 229 0 0,25 26 1 0 0,-37-43-470 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1 3 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1135.58">16 703 952 0 0,'0'0'4202'0'0,"14"15"400"0"0,-7 3-3452 0 0,0 0 1 0 0,1-1 0 0 0,0 0 0 0 0,2-1-1 0 0,16 23 1 0 0,-25-37-1123 0 0,13 17 229 0 0,25 26 1 0 0,-37-43-470 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1 3 1 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -12264,7 +18044,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">61 102 832 0 0,'6'-30'3038'0'0,"3"15"953"0"0,-14 39-1047 0 0,14 216 1719 0 0,-8-172-4047 0 0,-1-43-247 0 0,5 43 1 0 0,0-18 130 0 0,-2 0 0 0 0,-5 61-1 0 0,1-27-610 0 0,2-65-1786 0 0,-7-44-13741 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="526.73">1 504 428 0 0,'-1'-3'506'0'0,"1"0"1"0"0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,3-3 1 0 0,-2 2-370 0 0,1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,3 0 0 0 0,10-2 79 0 0,0 1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 1 1 0 0,0 1-1 0 0,24 4 0 0 0,-8-2-9 0 0,-1 3-1 0 0,-1 0 1 0 0,1 2-1 0 0,-1 1 0 0 0,-1 2 1 0 0,0 1-1 0 0,0 1 1 0 0,-1 2-1 0 0,32 22 1 0 0,-56-34-124 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,4 10 1 0 0,-5-12-19 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-3 5 0 0 0,-3 1 93 0 0,0 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-2 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-23 7-1 0 0,-8 0 316 0 0,-82 12 1 0 0,81-18-423 0 0,-59 8 94 0 0,87-13-219 0 0,-1-1-1 0 0,0 0 0 0 0,0-1 1 0 0,-25-5-1 0 0,38 6-210 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-2-2 0 0 0,4 2-80 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,2-1 1 0 0,12-10-1898 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1054.35">51 39 452 0 0,'-6'-18'10416'0'0,"22"18"-8206"0"0,236-5 1506 0 0,124-11-4088 0 0,-323 17-1538 0 0,-21 6-3547 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1054.33">51 39 452 0 0,'-6'-18'10416'0'0,"22"18"-8206"0"0,236-5 1506 0 0,124-11-4088 0 0,-323 17-1538 0 0,-21 6-3547 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13453,7 +19233,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">217 91 432 0 0,'-2'-14'2726'0'0,"1"13"-2583"0"0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1-2 0 0 0,-2 2 30 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-5-1 1757 0 0,0 10-903 0 0,-45 175 4486 0 0,19-27-3565 0 0,2-1-1436 0 0,19-91-487 0 0,7-27-1597 0 0,5-32-2613 0 0,3-23-742 0 0,1-24-2249 0 0,-2 30 5164 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="452.53">121 412 828 0 0,'0'-1'171'0'0,"-1"1"-1"0"0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,2 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,1 0-1 0 0,2-3 112 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,6-3 0 0 0,3 0 3 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,28 1 1 0 0,-36 2-195 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 2 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,5 10 0 0 0,-7-9 14 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-2 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,-7 6 0 0 0,3-5 116 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-16 3 1 0 0,-13 2 334 0 0,-47 4 0 0 0,57-9-272 0 0,9-2-460 0 0,-1 0 0 0 0,1-2 0 0 0,-1 0 0 0 0,-33-5 0 0 0,54 5 51 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,6-18-4381 0 0,19-16-2327 0 0,-25 35 6694 0 0,14-14-2393 0 0,-4 0 353 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1129.61">202 79 508 0 0,'-21'-24'23508'0'0,"22"24"-23803"0"0,19-2 732 0 0,1 0 1 0 0,33-8-1 0 0,6 0-240 0 0,14-1 1 0 0,-28 4-95 0 0,70-2 0 0 0,-57 6-2154 0 0,-59 3 1884 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-334 0 0,1-1 334 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-6 9-3320 0 0,-8 6-8432 0 0,10-11 9949 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1129.58">202 79 508 0 0,'-21'-24'23508'0'0,"22"24"-23803"0"0,19-2 732 0 0,1 0 1 0 0,33-8-1 0 0,6 0-240 0 0,14-1 1 0 0,-28 4-95 0 0,70-2 0 0 0,-57 6-2154 0 0,-59 3 1884 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-334 0 0,1-1 334 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-6 9-3320 0 0,-8 6-8432 0 0,10-11 9949 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13687,7 +19467,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">102 61 852 0 0,'-21'-17'4969'0'0,"21"16"-4852"0"0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,0 2 1 0 0,-8 39 1101 0 0,4-16-328 0 0,0-3-197 0 0,1 0 0 0 0,-1 35 0 0 0,1-11 138 0 0,-2 136 2260 0 0,4-137-2635 0 0,1-28-275 0 0,-1 0 1 0 0,-3 18 0 0 0,-10 85 372 0 0,8-84-448 0 0,5-66-2195 0 0,0 9-1083 0 0,2-33 0 0 0,14-54-5942 0 0,-14 78 7072 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="338.6">53 91 360 0 0,'-44'-74'7787'0'0,"44"73"-7732"0"0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,17-4 1193 0 0,21 8 104 0 0,56 10 341 0 0,-65-12-1564 0 0,-1 2 0 0 0,1 2 0 0 0,35 11 0 0 0,-63-17-207 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,1 2-1 0 0,-2-2-35 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-2 1 1 0 0,-3 2-793 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-10 3 1 0 0,-5 2-1285 0 0,0 1 214 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="666.91">13 301 8 0 0,'0'1'213'0'0,"0"0"0"0"0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 82 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3 0 1 0 0,7-2 322 0 0,0-1 0 0 0,17-6 0 0 0,-11 4 22 0 0,2 0-653 0 0,1 2 0 0 0,0 0-1 0 0,36 1 1 0 0,-56 2-118 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-8 8-1630 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1065.62">18 676 252 0 0,'5'39'3804'0'0,"0"-27"-1989"0"0,0 1 3382 0 0,-4-12-5098 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2 0 0 0 0,28 3 989 0 0,28-6-278 0 0,0-3-1 0 0,79-18 0 0 0,-5 1-628 0 0,-77 16-155 0 0,43-7-592 0 0,-90 14-625 0 0,-12 5-79 0 0,-13 5-890 0 0,-2-4-513 0 0,-1 0 0 0 0,-20 4-1 0 0,6-2 809 0 0,-7 3-21 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1065.58">18 676 252 0 0,'5'39'3804'0'0,"0"-27"-1989"0"0,0 1 3382 0 0,-4-12-5098 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2 0 0 0 0,28 3 989 0 0,28-6-278 0 0,0-3-1 0 0,79-18 0 0 0,-5 1-628 0 0,-77 16-155 0 0,43-7-592 0 0,-90 14-625 0 0,-12 5-79 0 0,-13 5-890 0 0,-2-4-513 0 0,-1 0 0 0 0,-20 4-1 0 0,6-2 809 0 0,-7 3-21 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15055,25 +20835,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5145FF9-7B28-45D3-AEB3-2B0CC8A016D3}">
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="3"/>
-    <col min="4" max="4" width="6" style="2"/>
-    <col min="5" max="5" width="6.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6" style="3"/>
-    <col min="8" max="8" width="6" style="2"/>
-    <col min="9" max="10" width="6" style="3"/>
-    <col min="11" max="11" width="6" style="2"/>
+    <col min="4" max="4" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="3"/>
+    <col min="11" max="11" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="3"/>
     <col min="13" max="13" width="6" style="2"/>
     <col min="14" max="14" width="6" style="3"/>
@@ -15115,10 +20896,10 @@
       <c r="H1" s="23">
         <v>7</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="29">
         <v>8</v>
       </c>
-      <c r="J1" s="29"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="23">
         <v>9</v>
       </c>
@@ -15171,7 +20952,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="17" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="17" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -15666,9 +21447,14 @@
       <c r="AA15" s="12"/>
     </row>
     <row r="16" spans="1:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
+        <v>45216</v>
+      </c>
       <c r="B16" s="7"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="9">
+        <v>38937</v>
+      </c>
       <c r="E16" s="19"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
@@ -15693,10 +21479,12 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="12"/>
     </row>
-    <row r="17" spans="2:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="9">
+        <v>47207</v>
+      </c>
       <c r="E17" s="19"/>
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
@@ -15721,10 +21509,12 @@
       <c r="Z17" s="13"/>
       <c r="AA17" s="12"/>
     </row>
-    <row r="18" spans="2:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="25">
+        <v>40978</v>
+      </c>
       <c r="E18" s="19"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
@@ -15749,14 +21539,19 @@
       <c r="Z18" s="13"/>
       <c r="AA18" s="12"/>
     </row>
-    <row r="19" spans="2:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>45219</v>
+      </c>
       <c r="B19" s="7"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="19"/>
       <c r="F19" s="7"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="9">
+        <v>18815</v>
+      </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="7"/>
@@ -15777,14 +21572,16 @@
       <c r="Z19" s="13"/>
       <c r="AA19" s="12"/>
     </row>
-    <row r="20" spans="2:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="19"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="9">
+        <v>27378</v>
+      </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="7"/>
@@ -15805,14 +21602,16 @@
       <c r="Z20" s="13"/>
       <c r="AA20" s="12"/>
     </row>
-    <row r="21" spans="2:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
       <c r="E21" s="19"/>
       <c r="F21" s="7"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="9">
+        <v>28684</v>
+      </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="7"/>
@@ -15833,38 +21632,100 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="12"/>
     </row>
-    <row r="22" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="5"/>
+      <c r="H22" s="25">
+        <v>35981</v>
+      </c>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
+        <v>45223</v>
+      </c>
       <c r="C23" s="5"/>
+      <c r="G23" s="27">
+        <v>47404</v>
+      </c>
     </row>
-    <row r="24" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="5"/>
+      <c r="G24" s="27">
+        <v>56534</v>
+      </c>
     </row>
-    <row r="25" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
+        <v>45225</v>
+      </c>
       <c r="C25" s="5"/>
+      <c r="I25" s="26">
+        <v>27539</v>
+      </c>
+      <c r="J25" s="26">
+        <v>7755</v>
+      </c>
     </row>
-    <row r="26" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
+      <c r="I26" s="27">
+        <v>13540</v>
+      </c>
+      <c r="J26" s="26">
+        <v>3228</v>
+      </c>
     </row>
-    <row r="27" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28">
+        <v>45231</v>
+      </c>
       <c r="C27" s="5"/>
+      <c r="I27" s="3">
+        <v>36021</v>
+      </c>
+      <c r="K27" s="9">
+        <v>38588</v>
+      </c>
     </row>
-    <row r="28" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28">
+        <v>45232</v>
+      </c>
       <c r="C28" s="5"/>
+      <c r="K28" s="9">
+        <v>27406</v>
+      </c>
     </row>
-    <row r="29" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
+      <c r="K29" s="2">
+        <v>36864</v>
+      </c>
     </row>
-    <row r="30" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="5"/>
+    <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28">
+        <v>45244</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="31" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28">
+        <v>45251</v>
+      </c>
       <c r="C31" s="5"/>
+      <c r="D31" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="32" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
     </row>
     <row r="33" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15974,4 +21835,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C363604-E2D1-4BF8-8EC1-C61890A65A6A}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="T41" sqref="T41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>